--- a/files/U.xlsx
+++ b/files/U.xlsx
@@ -319,4882 +319,4882 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>-0.24083888504375664</v>
+        <v>-0.17778208248569782</v>
       </c>
       <c r="B1">
-        <v>-0.22406371332729214</v>
+        <v>-0.20117055105115325</v>
       </c>
       <c r="C1">
-        <v>-0.19826670567348942</v>
+        <v>-0.2144620175925024</v>
       </c>
       <c r="D1">
-        <v>-0.16585929611645703</v>
+        <v>-0.2161602349092481</v>
       </c>
       <c r="E1">
-        <v>-0.12944355205461863</v>
+        <v>-0.20704232593974067</v>
       </c>
       <c r="F1">
-        <v>-0.09147856229951426</v>
+        <v>-0.1905900320008832</v>
       </c>
       <c r="G1">
-        <v>-0.053994761583910644</v>
+        <v>-0.16975051774676853</v>
       </c>
       <c r="H1">
-        <v>-0.018401630425599193</v>
+        <v>-0.14616945961703928</v>
       </c>
       <c r="I1">
-        <v>0.014581987890776601</v>
+        <v>-0.11987773972696768</v>
       </c>
       <c r="J1">
-        <v>0.04486733425181453</v>
+        <v>-0.0893647026283674</v>
       </c>
       <c r="K1">
-        <v>0.07282054508188204</v>
+        <v>-0.054256493191487565</v>
       </c>
       <c r="L1">
-        <v>0.09900901851213233</v>
+        <v>-0.015261492610933135</v>
       </c>
       <c r="M1">
-        <v>0.12391966051051989</v>
+        <v>0.024817919462257584</v>
       </c>
       <c r="N1">
-        <v>0.14770433590829768</v>
+        <v>0.06333188298433873</v>
       </c>
       <c r="O1">
-        <v>0.1700027186089447</v>
+        <v>0.098512124662291</v>
       </c>
       <c r="P1">
-        <v>0.18987838065795773</v>
+        <v>0.12983725636621768</v>
       </c>
       <c r="Q1">
-        <v>0.20588303287241277</v>
+        <v>0.1576207934812514</v>
       </c>
       <c r="R1">
-        <v>0.21624022080256328</v>
+        <v>0.1817883378498093</v>
       </c>
       <c r="S1">
-        <v>0.2191178617504319</v>
+        <v>0.20117340534331102</v>
       </c>
       <c r="T1">
-        <v>0.21294278466529218</v>
+        <v>0.21312786829484096</v>
       </c>
       <c r="U1">
-        <v>0.19670276831607136</v>
+        <v>0.21560867860119665</v>
       </c>
       <c r="V1">
-        <v>0.17018365939403254</v>
+        <v>0.2078505352659595</v>
       </c>
       <c r="W1">
-        <v>0.13410033944732955</v>
+        <v>0.19122633807084521</v>
       </c>
       <c r="X1">
-        <v>0.09009829940690811</v>
+        <v>0.16833083819272626</v>
       </c>
       <c r="Y1">
-        <v>0.04062395130803729</v>
+        <v>0.14093371600361626</v>
       </c>
       <c r="Z1">
-        <v>-0.011317266300332042</v>
+        <v>0.11030285020089482</v>
       </c>
       <c r="AA1">
-        <v>-0.062478928607090777</v>
+        <v>0.07583407751276272</v>
       </c>
       <c r="AB1">
-        <v>-0.10972118730202629</v>
+        <v>0.03740494162760099</v>
       </c>
       <c r="AC1">
-        <v>-0.15033831599375014</v>
+        <v>-0.003364678815094278</v>
       </c>
       <c r="AD1">
-        <v>-0.18232127131903691</v>
+        <v>-0.043852135032690504</v>
       </c>
       <c r="AE1">
-        <v>-0.20452108150073783</v>
+        <v>-0.080781745600568</v>
       </c>
       <c r="AF1">
-        <v>-0.21669385842036087</v>
+        <v>-0.11238875677748736</v>
       </c>
       <c r="AG1">
-        <v>-0.21942515638018592</v>
+        <v>-0.13894066938675068</v>
       </c>
       <c r="AH1">
-        <v>-0.21394811409345782</v>
+        <v>-0.16238849537802738</v>
       </c>
       <c r="AI1">
-        <v>-0.20188446979897656</v>
+        <v>-0.18410695242272399</v>
       </c>
       <c r="AJ1">
-        <v>-0.18494862948156593</v>
+        <v>-0.20256927565952124</v>
       </c>
       <c r="AK1">
-        <v>-0.1646612623378108</v>
+        <v>-0.21481573625689998</v>
       </c>
       <c r="AL1">
-        <v>-0.14211936846125145</v>
+        <v>-0.21664405920280053</v>
       </c>
       <c r="AM1">
-        <v>-0.11786364223319687</v>
+        <v>-0.2062322766644506</v>
       </c>
       <c r="AN1">
-        <v>-0.09187096141856424</v>
+        <v>-0.18505777876318621</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.01584368766168753</v>
+        <v>-0.13309518856148944</v>
       </c>
       <c r="B2">
-        <v>0.057830342323844736</v>
+        <v>-0.09564231609408347</v>
       </c>
       <c r="C2">
-        <v>0.09356550890065093</v>
+        <v>-0.05148992706165829</v>
       </c>
       <c r="D2">
-        <v>0.1227245746588795</v>
+        <v>-0.0029321783762023025</v>
       </c>
       <c r="E2">
-        <v>0.1458962894824556</v>
+        <v>0.04668152549714767</v>
       </c>
       <c r="F2">
-        <v>0.16426418123420725</v>
+        <v>0.09393116175446292</v>
       </c>
       <c r="G2">
-        <v>0.17917286569919894</v>
+        <v>0.13597797183967492</v>
       </c>
       <c r="H2">
-        <v>0.1916710069888611</v>
+        <v>0.1708847835130817</v>
       </c>
       <c r="I2">
-        <v>0.202132284610202</v>
+        <v>0.1980936615266531</v>
       </c>
       <c r="J2">
-        <v>0.21004403464809276</v>
+        <v>0.2175408102684548</v>
       </c>
       <c r="K2">
-        <v>0.21402120070139877</v>
+        <v>0.22916770390302504</v>
       </c>
       <c r="L2">
-        <v>0.21205636424536764</v>
+        <v>0.23357762609615615</v>
       </c>
       <c r="M2">
-        <v>0.20196418352616302</v>
+        <v>0.23085176226782297</v>
       </c>
       <c r="N2">
-        <v>0.18193182612449288</v>
+        <v>0.2211834303665656</v>
       </c>
       <c r="O2">
-        <v>0.1510568489451181</v>
+        <v>0.20453061886558851</v>
       </c>
       <c r="P2">
-        <v>0.10974850498190074</v>
+        <v>0.18091621696604113</v>
       </c>
       <c r="Q2">
-        <v>0.059890712660214375</v>
+        <v>0.15051107091581878</v>
       </c>
       <c r="R2">
-        <v>0.004711865812384621</v>
+        <v>0.11432541441736314</v>
       </c>
       <c r="S2">
-        <v>-0.05163070337232709</v>
+        <v>0.07362157334910821</v>
       </c>
       <c r="T2">
-        <v>-0.10467882741869386</v>
+        <v>0.030137083612822115</v>
       </c>
       <c r="U2">
-        <v>-0.15038904253241603</v>
+        <v>-0.01425736086500409</v>
       </c>
       <c r="V2">
-        <v>-0.18578384568242973</v>
+        <v>-0.057992879523329065</v>
       </c>
       <c r="W2">
-        <v>-0.20939416375937536</v>
+        <v>-0.09998292257431637</v>
       </c>
       <c r="X2">
-        <v>-0.22139010926702235</v>
+        <v>-0.1390352640476241</v>
       </c>
       <c r="Y2">
-        <v>-0.22336538124821154</v>
+        <v>-0.1739707951807078</v>
       </c>
       <c r="Z2">
-        <v>-0.21782094023888415</v>
+        <v>-0.20282276138060065</v>
       </c>
       <c r="AA2">
-        <v>-0.20746710090673992</v>
+        <v>-0.22413449330940258</v>
       </c>
       <c r="AB2">
-        <v>-0.19451148631278525</v>
+        <v>-0.23641503990731952</v>
       </c>
       <c r="AC2">
-        <v>-0.18010981972940254</v>
+        <v>-0.239309420131387</v>
       </c>
       <c r="AD2">
-        <v>-0.16412244969795892</v>
+        <v>-0.23367951512772592</v>
       </c>
       <c r="AE2">
-        <v>-0.1452476119807105</v>
+        <v>-0.22060561572202386</v>
       </c>
       <c r="AF2">
-        <v>-0.12150855979986701</v>
+        <v>-0.20116936178939984</v>
       </c>
       <c r="AG2">
-        <v>-0.0909784535071499</v>
+        <v>-0.17512756535570637</v>
       </c>
       <c r="AH2">
-        <v>-0.052558388457260706</v>
+        <v>-0.14211709861951694</v>
       </c>
       <c r="AI2">
-        <v>-0.006599581015383775</v>
+        <v>-0.1020085589696396</v>
       </c>
       <c r="AJ2">
-        <v>0.044810187473861916</v>
+        <v>-0.05562251581263272</v>
       </c>
       <c r="AK2">
-        <v>0.09799737422530506</v>
+        <v>-0.006370076809203869</v>
       </c>
       <c r="AL2">
-        <v>0.1482820380882471</v>
+        <v>0.04162728151332494</v>
       </c>
       <c r="AM2">
-        <v>0.19086237860654043</v>
+        <v>0.08457906608651103</v>
       </c>
       <c r="AN2">
-        <v>0.22179237695279205</v>
+        <v>0.1207602223029324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.17536854334742083</v>
+        <v>-0.05185588217356275</v>
       </c>
       <c r="B3">
-        <v>0.19316928064713815</v>
+        <v>-0.08150222308836237</v>
       </c>
       <c r="C3">
-        <v>0.17503069536614219</v>
+        <v>-0.08552308826904402</v>
       </c>
       <c r="D3">
-        <v>0.12384308874994208</v>
+        <v>-0.05069449218453244</v>
       </c>
       <c r="E3">
-        <v>0.048556773375049295</v>
+        <v>0.020216702139771517</v>
       </c>
       <c r="F3">
-        <v>-0.03718714079871329</v>
+        <v>0.10561447569027824</v>
       </c>
       <c r="G3">
-        <v>-0.11736011296587616</v>
+        <v>0.17048805348664844</v>
       </c>
       <c r="H3">
-        <v>-0.17641126042709968</v>
+        <v>0.18094008473998105</v>
       </c>
       <c r="I3">
-        <v>-0.20218981124742882</v>
+        <v>0.1205323232226586</v>
       </c>
       <c r="J3">
-        <v>-0.18837540128426095</v>
+        <v>0.0007821747375028193</v>
       </c>
       <c r="K3">
-        <v>-0.1359244369564049</v>
+        <v>-0.13936191213178542</v>
       </c>
       <c r="L3">
-        <v>-0.05319860216211199</v>
+        <v>-0.24797600830520491</v>
       </c>
       <c r="M3">
-        <v>0.0453234612998464</v>
+        <v>-0.28014036736870795</v>
       </c>
       <c r="N3">
-        <v>0.14157880356400274</v>
+        <v>-0.2177514074297323</v>
       </c>
       <c r="O3">
-        <v>0.21726821971319615</v>
+        <v>-0.07801153361188537</v>
       </c>
       <c r="P3">
-        <v>0.2574023661524284</v>
+        <v>0.0921791620978995</v>
       </c>
       <c r="Q3">
-        <v>0.25335179099167504</v>
+        <v>0.2336397037659841</v>
       </c>
       <c r="R3">
-        <v>0.20476575499947663</v>
+        <v>0.2968545090584438</v>
       </c>
       <c r="S3">
-        <v>0.11991759498573694</v>
+        <v>0.26018905983508567</v>
       </c>
       <c r="T3">
-        <v>0.014330935702205207</v>
+        <v>0.1372874532423303</v>
       </c>
       <c r="U3">
-        <v>-0.09211318383729344</v>
+        <v>-0.02886469174940204</v>
       </c>
       <c r="V3">
-        <v>-0.17906251261130834</v>
+        <v>-0.18127155812963405</v>
       </c>
       <c r="W3">
-        <v>-0.2298121864671947</v>
+        <v>-0.2688408145212918</v>
       </c>
       <c r="X3">
-        <v>-0.23480657875783478</v>
+        <v>-0.26374457382498184</v>
       </c>
       <c r="Y3">
-        <v>-0.19376293948526482</v>
+        <v>-0.16999868008947536</v>
       </c>
       <c r="Z3">
-        <v>-0.115911691568219</v>
+        <v>-0.0224684415011209</v>
       </c>
       <c r="AA3">
-        <v>-0.018228429440126502</v>
+        <v>0.126630881676766</v>
       </c>
       <c r="AB3">
-        <v>0.07803875733441272</v>
+        <v>0.2256856126154622</v>
       </c>
       <c r="AC3">
-        <v>0.15185765643628724</v>
+        <v>0.242718582353242</v>
       </c>
       <c r="AD3">
-        <v>0.18697328319795942</v>
+        <v>0.1774311473422605</v>
       </c>
       <c r="AE3">
-        <v>0.17554220147162</v>
+        <v>0.05998486357572437</v>
       </c>
       <c r="AF3">
-        <v>0.12000359992419853</v>
+        <v>-0.06160929408309261</v>
       </c>
       <c r="AG3">
-        <v>0.032711515292037474</v>
+        <v>-0.1421905859028136</v>
       </c>
       <c r="AH3">
-        <v>-0.06666115303982667</v>
+        <v>-0.157339938908958</v>
       </c>
       <c r="AI3">
-        <v>-0.155429171152776</v>
+        <v>-0.11200481499294525</v>
       </c>
       <c r="AJ3">
-        <v>-0.21298294842022814</v>
+        <v>-0.035520764160480084</v>
       </c>
       <c r="AK3">
-        <v>-0.22551417657593048</v>
+        <v>0.03550756815653279</v>
       </c>
       <c r="AL3">
-        <v>-0.18927815323910827</v>
+        <v>0.0736803010864813</v>
       </c>
       <c r="AM3">
-        <v>-0.1115952336540419</v>
+        <v>0.07216077685848227</v>
       </c>
       <c r="AN3">
-        <v>-0.009298710464141153</v>
+        <v>0.04325771280992029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.10143230248069214</v>
+        <v>0.034310429002654796</v>
       </c>
       <c r="B4">
-        <v>-0.011618153674265639</v>
+        <v>0.012335068052895415</v>
       </c>
       <c r="C4">
-        <v>0.08009360518810224</v>
+        <v>-0.029250017829263338</v>
       </c>
       <c r="D4">
-        <v>0.15832094880952566</v>
+        <v>-0.07748190633308197</v>
       </c>
       <c r="E4">
-        <v>0.2095331477799774</v>
+        <v>-0.10993429729326626</v>
       </c>
       <c r="F4">
-        <v>0.22457913583848835</v>
+        <v>-0.10406959004730876</v>
       </c>
       <c r="G4">
-        <v>0.20054821939220027</v>
+        <v>-0.04911337267578957</v>
       </c>
       <c r="H4">
-        <v>0.14157038872467068</v>
+        <v>0.044855962621182</v>
       </c>
       <c r="I4">
-        <v>0.0583375065173577</v>
+        <v>0.14677816342972771</v>
       </c>
       <c r="J4">
-        <v>-0.03364274763475424</v>
+        <v>0.21463640067376977</v>
       </c>
       <c r="K4">
-        <v>-0.11680161245216789</v>
+        <v>0.21275235236036377</v>
       </c>
       <c r="L4">
-        <v>-0.17479896908647533</v>
+        <v>0.12925513931228122</v>
       </c>
       <c r="M4">
-        <v>-0.19573660448792682</v>
+        <v>-0.015292662224796652</v>
       </c>
       <c r="N4">
-        <v>-0.17465755784510892</v>
+        <v>-0.17230632916294458</v>
       </c>
       <c r="O4">
-        <v>-0.11479453074815583</v>
+        <v>-0.2827314701244965</v>
       </c>
       <c r="P4">
-        <v>-0.027247181804694227</v>
+        <v>-0.30065632944703913</v>
       </c>
       <c r="Q4">
-        <v>0.07093375728202318</v>
+        <v>-0.21312189677719257</v>
       </c>
       <c r="R4">
-        <v>0.15995348463605144</v>
+        <v>-0.04742545194677267</v>
       </c>
       <c r="S4">
-        <v>0.22118469348703357</v>
+        <v>0.13768763948842816</v>
       </c>
       <c r="T4">
-        <v>0.2410152267483394</v>
+        <v>0.2741739396314874</v>
       </c>
       <c r="U4">
-        <v>0.2138304861704929</v>
+        <v>0.31136146293810857</v>
       </c>
       <c r="V4">
-        <v>0.14346383325694</v>
+        <v>0.23599236441455063</v>
       </c>
       <c r="W4">
-        <v>0.04273390185373688</v>
+        <v>0.07762396014615679</v>
       </c>
       <c r="X4">
-        <v>-0.06892606930338151</v>
+        <v>-0.10309195408693575</v>
       </c>
       <c r="Y4">
-        <v>-0.1693318656578439</v>
+        <v>-0.23867926607928142</v>
       </c>
       <c r="Z4">
-        <v>-0.23814443067919613</v>
+        <v>-0.28126738142738494</v>
       </c>
       <c r="AA4">
-        <v>-0.2612379149247981</v>
+        <v>-0.22100087486212655</v>
       </c>
       <c r="AB4">
-        <v>-0.23387881756325782</v>
+        <v>-0.08793147566582267</v>
       </c>
       <c r="AC4">
-        <v>-0.16196877168596974</v>
+        <v>0.062074461140085024</v>
       </c>
       <c r="AD4">
-        <v>-0.06099674731046952</v>
+        <v>0.1715707673357419</v>
       </c>
       <c r="AE4">
-        <v>0.047157877204888024</v>
+        <v>0.2050375215379655</v>
       </c>
       <c r="AF4">
-        <v>0.13893845326482718</v>
+        <v>0.16112661633670233</v>
       </c>
       <c r="AG4">
-        <v>0.19433361302279956</v>
+        <v>0.06948244088028471</v>
       </c>
       <c r="AH4">
-        <v>0.201440170528465</v>
+        <v>-0.025874930866879038</v>
       </c>
       <c r="AI4">
-        <v>0.15929752350379875</v>
+        <v>-0.0872744827225271</v>
       </c>
       <c r="AJ4">
-        <v>0.07827967999047819</v>
+        <v>-0.09853086139221852</v>
       </c>
       <c r="AK4">
-        <v>-0.02212814562965986</v>
+        <v>-0.06832940127430759</v>
       </c>
       <c r="AL4">
-        <v>-0.11773281307108241</v>
+        <v>-0.020840101120678647</v>
       </c>
       <c r="AM4">
-        <v>-0.1852465923722219</v>
+        <v>0.018714489262451256</v>
       </c>
       <c r="AN4">
-        <v>-0.20781399332682418</v>
+        <v>0.036362438555110205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.07357438071439205</v>
+        <v>0.08304611226076632</v>
       </c>
       <c r="B5">
-        <v>-0.19438563389615526</v>
+        <v>0.10326528514978821</v>
       </c>
       <c r="C5">
-        <v>-0.2633768582994232</v>
+        <v>0.07177133447634743</v>
       </c>
       <c r="D5">
-        <v>-0.2726572125756745</v>
+        <v>-0.013718135140302715</v>
       </c>
       <c r="E5">
-        <v>-0.22591280044516404</v>
+        <v>-0.12164952287419283</v>
       </c>
       <c r="F5">
-        <v>-0.13699107070657687</v>
+        <v>-0.19827436408135451</v>
       </c>
       <c r="G5">
-        <v>-0.02659181453435875</v>
+        <v>-0.1933735620123386</v>
       </c>
       <c r="H5">
-        <v>0.08221534168581655</v>
+        <v>-0.09220575025524133</v>
       </c>
       <c r="I5">
-        <v>0.16869899076325343</v>
+        <v>0.06851022335204911</v>
       </c>
       <c r="J5">
-        <v>0.21842159067969202</v>
+        <v>0.21421764924768336</v>
       </c>
       <c r="K5">
-        <v>0.22564271557882976</v>
+        <v>0.26880899449347473</v>
       </c>
       <c r="L5">
-        <v>0.1937208909051882</v>
+        <v>0.19894063097651143</v>
       </c>
       <c r="M5">
-        <v>0.13351462988900487</v>
+        <v>0.03611418815501373</v>
       </c>
       <c r="N5">
-        <v>0.060232616280211114</v>
+        <v>-0.13529569156135712</v>
       </c>
       <c r="O5">
-        <v>-0.010470414761167727</v>
+        <v>-0.22377020353759103</v>
       </c>
       <c r="P5">
-        <v>-0.06619410371537157</v>
+        <v>-0.18362205916190058</v>
       </c>
       <c r="Q5">
-        <v>-0.10039712263362702</v>
+        <v>-0.04305168010131487</v>
       </c>
       <c r="R5">
-        <v>-0.11329703057705631</v>
+        <v>0.11068585823162869</v>
       </c>
       <c r="S5">
-        <v>-0.11089335857566933</v>
+        <v>0.18286718155889425</v>
       </c>
       <c r="T5">
-        <v>-0.10242924998055074</v>
+        <v>0.1284866206822413</v>
       </c>
       <c r="U5">
-        <v>-0.09702317274984511</v>
+        <v>-0.01789514964730793</v>
       </c>
       <c r="V5">
-        <v>-0.1004375428524772</v>
+        <v>-0.16233093816914287</v>
       </c>
       <c r="W5">
-        <v>-0.11293586409583371</v>
+        <v>-0.20855776770148288</v>
       </c>
       <c r="X5">
-        <v>-0.12890521231013</v>
+        <v>-0.11886864549973489</v>
       </c>
       <c r="Y5">
-        <v>-0.1384450937784818</v>
+        <v>0.05928982032435502</v>
       </c>
       <c r="Z5">
-        <v>-0.13056287728693936</v>
+        <v>0.2212184889933943</v>
       </c>
       <c r="AA5">
-        <v>-0.09711767804262829</v>
+        <v>0.2665049824196641</v>
       </c>
       <c r="AB5">
-        <v>-0.03636128023171425</v>
+        <v>0.16157404029693875</v>
       </c>
       <c r="AC5">
-        <v>0.04506476792473181</v>
+        <v>-0.038880774476038354</v>
       </c>
       <c r="AD5">
-        <v>0.13247803596273827</v>
+        <v>-0.2249965568207167</v>
       </c>
       <c r="AE5">
-        <v>0.20604927561600714</v>
+        <v>-0.2960160886623335</v>
       </c>
       <c r="AF5">
-        <v>0.2457172181636808</v>
+        <v>-0.218798073302712</v>
       </c>
       <c r="AG5">
-        <v>0.23694706751679928</v>
+        <v>-0.043308168895471504</v>
       </c>
       <c r="AH5">
-        <v>0.17576627195683503</v>
+        <v>0.13105960496866875</v>
       </c>
       <c r="AI5">
-        <v>0.07152421088855107</v>
+        <v>0.21611113742040922</v>
       </c>
       <c r="AJ5">
-        <v>-0.05372036790279958</v>
+        <v>0.18379875649890207</v>
       </c>
       <c r="AK5">
-        <v>-0.1694573698777963</v>
+        <v>0.07260280886899811</v>
       </c>
       <c r="AL5">
-        <v>-0.2439035368519029</v>
+        <v>-0.043109960131429405</v>
       </c>
       <c r="AM5">
-        <v>-0.2524629310730871</v>
+        <v>-0.10289869147529761</v>
       </c>
       <c r="AN5">
-        <v>-0.18527274691480633</v>
+        <v>-0.09192912391765666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.31422973402824267</v>
+        <v>0.006200522135137102</v>
       </c>
       <c r="B6">
-        <v>-0.20696263929173245</v>
+        <v>-0.057929742002597644</v>
       </c>
       <c r="C6">
-        <v>-0.07180426779416929</v>
+        <v>-0.12561561030606969</v>
       </c>
       <c r="D6">
-        <v>0.06479789968630707</v>
+        <v>-0.15690539856523375</v>
       </c>
       <c r="E6">
-        <v>0.17783876022151643</v>
+        <v>-0.11862563227411581</v>
       </c>
       <c r="F6">
-        <v>0.24843994341086156</v>
+        <v>-0.007921969383463852</v>
       </c>
       <c r="G6">
-        <v>0.2671640806677849</v>
+        <v>0.13776215674806885</v>
       </c>
       <c r="H6">
-        <v>0.2353160373444157</v>
+        <v>0.25235051507225165</v>
       </c>
       <c r="I6">
-        <v>0.1640053903494289</v>
+        <v>0.2736052915181501</v>
       </c>
       <c r="J6">
-        <v>0.07121581890916007</v>
+        <v>0.17876228767495742</v>
       </c>
       <c r="K6">
-        <v>-0.022446987082457376</v>
+        <v>0.0024033017762274123</v>
       </c>
       <c r="L6">
-        <v>-0.0983712128607652</v>
+        <v>-0.17566187248211204</v>
       </c>
       <c r="M6">
-        <v>-0.14388265215449564</v>
+        <v>-0.27095963079458385</v>
       </c>
       <c r="N6">
-        <v>-0.15463453727156973</v>
+        <v>-0.23999138333461464</v>
       </c>
       <c r="O6">
-        <v>-0.13492129280353948</v>
+        <v>-0.10611273870495012</v>
       </c>
       <c r="P6">
-        <v>-0.0958831098009103</v>
+        <v>0.05255634223895563</v>
       </c>
       <c r="Q6">
-        <v>-0.05207655584278964</v>
+        <v>0.1477590799316553</v>
       </c>
       <c r="R6">
-        <v>-0.01729310655422525</v>
+        <v>0.13279515548958967</v>
       </c>
       <c r="S6">
-        <v>-0.0007091141217401148</v>
+        <v>0.029667300914391546</v>
       </c>
       <c r="T6">
-        <v>-0.004387707067460236</v>
+        <v>-0.08521959440368403</v>
       </c>
       <c r="U6">
-        <v>-0.022827453359676363</v>
+        <v>-0.12923570872881796</v>
       </c>
       <c r="V6">
-        <v>-0.044732171846387274</v>
+        <v>-0.0669902387758767</v>
       </c>
       <c r="W6">
-        <v>-0.056582975144941074</v>
+        <v>0.0654028235633498</v>
       </c>
       <c r="X6">
-        <v>-0.047077054385938705</v>
+        <v>0.18119498950076793</v>
       </c>
       <c r="Y6">
-        <v>-0.011199215705636492</v>
+        <v>0.19705687284940465</v>
       </c>
       <c r="Z6">
-        <v>0.047292363901665774</v>
+        <v>0.08763272153582852</v>
       </c>
       <c r="AA6">
-        <v>0.11583397719304937</v>
+        <v>-0.09569342814452415</v>
       </c>
       <c r="AB6">
-        <v>0.17572558682996803</v>
+        <v>-0.2520335110219856</v>
       </c>
       <c r="AC6">
-        <v>0.20700395897482177</v>
+        <v>-0.29067564285942404</v>
       </c>
       <c r="AD6">
-        <v>0.19434387975534825</v>
+        <v>-0.18516333821150505</v>
       </c>
       <c r="AE6">
-        <v>0.13239299030250393</v>
+        <v>0.01150036006288473</v>
       </c>
       <c r="AF6">
-        <v>0.028929194317594442</v>
+        <v>0.1979760027152302</v>
       </c>
       <c r="AG6">
-        <v>-0.09533764550648331</v>
+        <v>0.28348924613408133</v>
       </c>
       <c r="AH6">
-        <v>-0.21068688017923093</v>
+        <v>0.23678984168671768</v>
       </c>
       <c r="AI6">
-        <v>-0.2853919322906138</v>
+        <v>0.09801851624329247</v>
       </c>
       <c r="AJ6">
-        <v>-0.2942258827093185</v>
+        <v>-0.05134480204138259</v>
       </c>
       <c r="AK6">
-        <v>-0.2262735758714569</v>
+        <v>-0.13914333170379195</v>
       </c>
       <c r="AL6">
-        <v>-0.08978611830639514</v>
+        <v>-0.13934793691377226</v>
       </c>
       <c r="AM6">
-        <v>0.08763242406885734</v>
+        <v>-0.07756170277943249</v>
       </c>
       <c r="AN6">
-        <v>0.2641203181010945</v>
+        <v>-0.004606935877014438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.38904793880436167</v>
+        <v>-0.25384841679133074</v>
       </c>
       <c r="B7">
-        <v>0.34191849960250925</v>
+        <v>-0.2728812186734329</v>
       </c>
       <c r="C7">
-        <v>0.24663759728579757</v>
+        <v>-0.1694696573931437</v>
       </c>
       <c r="D7">
-        <v>0.13928984515229262</v>
+        <v>0.018284363207099908</v>
       </c>
       <c r="E7">
-        <v>0.05173503882601013</v>
+        <v>0.2052722497892108</v>
       </c>
       <c r="F7">
-        <v>0.004418011246024497</v>
+        <v>0.3035570241764032</v>
       </c>
       <c r="G7">
-        <v>0.002638342406773314</v>
+        <v>0.27021121119403185</v>
       </c>
       <c r="H7">
-        <v>0.03695153198166112</v>
+        <v>0.13246958734079173</v>
       </c>
       <c r="I7">
-        <v>0.08735330208114063</v>
+        <v>-0.02986645186239052</v>
       </c>
       <c r="J7">
-        <v>0.1299823048885145</v>
+        <v>-0.13269549481207815</v>
       </c>
       <c r="K7">
-        <v>0.14448456106974703</v>
+        <v>-0.13674304540596607</v>
       </c>
       <c r="L7">
-        <v>0.12006148608306794</v>
+        <v>-0.06731355013924281</v>
       </c>
       <c r="M7">
-        <v>0.05860547446331444</v>
+        <v>0.006187382886593389</v>
       </c>
       <c r="N7">
-        <v>-0.02587933326670898</v>
+        <v>0.020766939141519863</v>
       </c>
       <c r="O7">
-        <v>-0.11136715055469278</v>
+        <v>-0.036542170357910526</v>
       </c>
       <c r="P7">
-        <v>-0.17424803492591853</v>
+        <v>-0.12002481488875506</v>
       </c>
       <c r="Q7">
-        <v>-0.196292337605123</v>
+        <v>-0.15863063070111616</v>
       </c>
       <c r="R7">
-        <v>-0.17015226645533627</v>
+        <v>-0.1073534712665503</v>
       </c>
       <c r="S7">
-        <v>-0.10179033300226907</v>
+        <v>0.01766327816574687</v>
       </c>
       <c r="T7">
-        <v>-0.009067854696365821</v>
+        <v>0.14748168003464016</v>
       </c>
       <c r="U7">
-        <v>0.08318351007350211</v>
+        <v>0.2050127015255273</v>
       </c>
       <c r="V7">
-        <v>0.15024587800170805</v>
+        <v>0.1572798547964582</v>
       </c>
       <c r="W7">
-        <v>0.174707399206321</v>
+        <v>0.037961524796005286</v>
       </c>
       <c r="X7">
-        <v>0.15159996924815203</v>
+        <v>-0.07558824489815417</v>
       </c>
       <c r="Y7">
-        <v>0.08984399542517127</v>
+        <v>-0.11670149092637998</v>
       </c>
       <c r="Z7">
-        <v>0.00941187149046299</v>
+        <v>-0.07461962243950396</v>
       </c>
       <c r="AA7">
-        <v>-0.06508049024473339</v>
+        <v>-0.0003113019696641427</v>
       </c>
       <c r="AB7">
-        <v>-0.11247473262149761</v>
+        <v>0.03447478398359669</v>
       </c>
       <c r="AC7">
-        <v>-0.12231228192012479</v>
+        <v>-0.0072113904739573</v>
       </c>
       <c r="AD7">
-        <v>-0.09874547307915923</v>
+        <v>-0.09640851275628796</v>
       </c>
       <c r="AE7">
-        <v>-0.05952366611236036</v>
+        <v>-0.15601514969970587</v>
       </c>
       <c r="AF7">
-        <v>-0.029943131612242983</v>
+        <v>-0.11756981929133263</v>
       </c>
       <c r="AG7">
-        <v>-0.03333104519382054</v>
+        <v>0.024577039204529683</v>
       </c>
       <c r="AH7">
-        <v>-0.08099848151627426</v>
+        <v>0.19953683395203908</v>
       </c>
       <c r="AI7">
-        <v>-0.16516524362353469</v>
+        <v>0.3024327006601811</v>
       </c>
       <c r="AJ7">
-        <v>-0.25784208116333995</v>
+        <v>0.26289001335624934</v>
       </c>
       <c r="AK7">
-        <v>-0.3170719533722945</v>
+        <v>0.0931154230605913</v>
       </c>
       <c r="AL7">
-        <v>-0.29964397039316176</v>
+        <v>-0.11599573904263727</v>
       </c>
       <c r="AM7">
-        <v>-0.1770421913902247</v>
+        <v>-0.2516670013667553</v>
       </c>
       <c r="AN7">
-        <v>0.05026703251355992</v>
+        <v>-0.24947844570396308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.2732005133617787</v>
+        <v>-0.11437779620705855</v>
       </c>
       <c r="B8">
-        <v>0.03255540843252912</v>
+        <v>0.06496170521425071</v>
       </c>
       <c r="C8">
-        <v>-0.14824835776908452</v>
+        <v>0.23892207101104815</v>
       </c>
       <c r="D8">
-        <v>-0.24601099520470854</v>
+        <v>0.3250979096859751</v>
       </c>
       <c r="E8">
-        <v>-0.2601753049911694</v>
+        <v>0.2801466595958172</v>
       </c>
       <c r="F8">
-        <v>-0.20981902582498327</v>
+        <v>0.12384054099187602</v>
       </c>
       <c r="G8">
-        <v>-0.12635246090169935</v>
+        <v>-0.0656146287756883</v>
       </c>
       <c r="H8">
-        <v>-0.043954243382891264</v>
+        <v>-0.19617242764645754</v>
       </c>
       <c r="I8">
-        <v>0.009773394004035702</v>
+        <v>-0.21545165059658364</v>
       </c>
       <c r="J8">
-        <v>0.02060638750948895</v>
+        <v>-0.13451438489385711</v>
       </c>
       <c r="K8">
-        <v>-0.009641311355981312</v>
+        <v>-0.01708425090036636</v>
       </c>
       <c r="L8">
-        <v>-0.06508625933516984</v>
+        <v>0.06162163355924201</v>
       </c>
       <c r="M8">
-        <v>-0.12163624240071783</v>
+        <v>0.06606293333575868</v>
       </c>
       <c r="N8">
-        <v>-0.15498563236618368</v>
+        <v>0.019166929559022435</v>
       </c>
       <c r="O8">
-        <v>-0.14843483501262753</v>
+        <v>-0.018829991843204625</v>
       </c>
       <c r="P8">
-        <v>-0.0982913406234489</v>
+        <v>0.002262609679058413</v>
       </c>
       <c r="Q8">
-        <v>-0.015292407555111617</v>
+        <v>0.08462059560688959</v>
       </c>
       <c r="R8">
-        <v>0.07838493872835585</v>
+        <v>0.17586277867880334</v>
       </c>
       <c r="S8">
-        <v>0.1556904263399872</v>
+        <v>0.20849931681586878</v>
       </c>
       <c r="T8">
-        <v>0.19294308368536947</v>
+        <v>0.14569209642240274</v>
       </c>
       <c r="U8">
-        <v>0.17730124172696235</v>
+        <v>0.011482445322762692</v>
       </c>
       <c r="V8">
-        <v>0.11115993084718027</v>
+        <v>-0.12386304359440128</v>
       </c>
       <c r="W8">
-        <v>0.012011987681856264</v>
+        <v>-0.18896658075487746</v>
       </c>
       <c r="X8">
-        <v>-0.09237495871905645</v>
+        <v>-0.16170540467720226</v>
       </c>
       <c r="Y8">
-        <v>-0.17218076918925798</v>
+        <v>-0.08083145865464844</v>
       </c>
       <c r="Z8">
-        <v>-0.20474317712786028</v>
+        <v>-0.016508357221159103</v>
       </c>
       <c r="AA8">
-        <v>-0.1818891827477723</v>
+        <v>-0.014261408304122909</v>
       </c>
       <c r="AB8">
-        <v>-0.11292616746945243</v>
+        <v>-0.06315252927146899</v>
       </c>
       <c r="AC8">
-        <v>-0.02204415450642443</v>
+        <v>-0.10171464033970427</v>
       </c>
       <c r="AD8">
-        <v>0.059407885245003546</v>
+        <v>-0.06748835226046433</v>
       </c>
       <c r="AE8">
-        <v>0.103591618336456</v>
+        <v>0.04817433138366693</v>
       </c>
       <c r="AF8">
-        <v>0.09643756225680546</v>
+        <v>0.18585008496482028</v>
       </c>
       <c r="AG8">
-        <v>0.04393205024049803</v>
+        <v>0.24945844615483048</v>
       </c>
       <c r="AH8">
-        <v>-0.028180207019159076</v>
+        <v>0.1766809630625713</v>
       </c>
       <c r="AI8">
-        <v>-0.08196656519384855</v>
+        <v>-0.013455286119478858</v>
       </c>
       <c r="AJ8">
-        <v>-0.08044299063396367</v>
+        <v>-0.22532022147816194</v>
       </c>
       <c r="AK8">
-        <v>-0.0024277935564412725</v>
+        <v>-0.339491200386869</v>
       </c>
       <c r="AL8">
-        <v>0.1458852792190799</v>
+        <v>-0.2905628484993392</v>
       </c>
       <c r="AM8">
-        <v>0.3272688466388118</v>
+        <v>-0.1076525045738944</v>
       </c>
       <c r="AN8">
-        <v>0.4803761043919767</v>
+        <v>0.10526565518941136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.39205788728884783</v>
+        <v>0.35900071091393476</v>
       </c>
       <c r="B9">
-        <v>-0.14279493086119688</v>
+        <v>0.3479318971827566</v>
       </c>
       <c r="C9">
-        <v>0.04001173771739647</v>
+        <v>0.19977574417035504</v>
       </c>
       <c r="D9">
-        <v>0.1178126675983489</v>
+        <v>0.011983944552311276</v>
       </c>
       <c r="E9">
-        <v>0.09190564090002301</v>
+        <v>-0.11560835929204212</v>
       </c>
       <c r="F9">
-        <v>-0.004220649227696579</v>
+        <v>-0.12783394064500764</v>
       </c>
       <c r="G9">
-        <v>-0.12030998742168622</v>
+        <v>-0.05366317345837959</v>
       </c>
       <c r="H9">
-        <v>-0.20744479225801823</v>
+        <v>0.029945894763225744</v>
       </c>
       <c r="I9">
-        <v>-0.2334562967420916</v>
+        <v>0.05519822851187263</v>
       </c>
       <c r="J9">
-        <v>-0.19143995224289917</v>
+        <v>0.004610037985537363</v>
       </c>
       <c r="K9">
-        <v>-0.0994574409716052</v>
+        <v>-0.07186584741417133</v>
       </c>
       <c r="L9">
-        <v>0.007780293517771739</v>
+        <v>-0.10510256966064986</v>
       </c>
       <c r="M9">
-        <v>0.0920887938929785</v>
+        <v>-0.05025999687263913</v>
       </c>
       <c r="N9">
-        <v>0.12534280694073782</v>
+        <v>0.069581284050632</v>
       </c>
       <c r="O9">
-        <v>0.0989276066235978</v>
+        <v>0.18448561804593233</v>
       </c>
       <c r="P9">
-        <v>0.026108611568103332</v>
+        <v>0.22759696514476854</v>
       </c>
       <c r="Q9">
-        <v>-0.0633108554303117</v>
+        <v>0.18034857231317525</v>
       </c>
       <c r="R9">
-        <v>-0.13410615127245892</v>
+        <v>0.08390679663945577</v>
       </c>
       <c r="S9">
-        <v>-0.15863361951535673</v>
+        <v>0.004139002469780653</v>
       </c>
       <c r="T9">
-        <v>-0.127141194674884</v>
+        <v>-0.013075480318815044</v>
       </c>
       <c r="U9">
-        <v>-0.05165022215064011</v>
+        <v>0.017801695705058813</v>
       </c>
       <c r="V9">
-        <v>0.038177178329999256</v>
+        <v>0.04165275942435366</v>
       </c>
       <c r="W9">
-        <v>0.10597167100988468</v>
+        <v>0.005112954625905077</v>
       </c>
       <c r="X9">
-        <v>0.12265355454702674</v>
+        <v>-0.09582307233714227</v>
       </c>
       <c r="Y9">
-        <v>0.07840322305268721</v>
+        <v>-0.20309258913508013</v>
       </c>
       <c r="Z9">
-        <v>-0.0120969023866776</v>
+        <v>-0.24802906459498902</v>
       </c>
       <c r="AA9">
-        <v>-0.11370984377224604</v>
+        <v>-0.19250505616234298</v>
       </c>
       <c r="AB9">
-        <v>-0.18344799026230915</v>
+        <v>-0.06852128861463957</v>
       </c>
       <c r="AC9">
-        <v>-0.18753054540100486</v>
+        <v>0.04299741374180769</v>
       </c>
       <c r="AD9">
-        <v>-0.11657677792261174</v>
+        <v>0.07753122892695563</v>
       </c>
       <c r="AE9">
-        <v>0.007471367727855309</v>
+        <v>0.0313708476175057</v>
       </c>
       <c r="AF9">
-        <v>0.1367376986184121</v>
+        <v>-0.03276393388568528</v>
       </c>
       <c r="AG9">
-        <v>0.21485560050670227</v>
+        <v>-0.039849296109458816</v>
       </c>
       <c r="AH9">
-        <v>0.20130550744212583</v>
+        <v>0.035533780932007444</v>
       </c>
       <c r="AI9">
-        <v>0.0937325722213065</v>
+        <v>0.13782965439111278</v>
       </c>
       <c r="AJ9">
-        <v>-0.06162481383932975</v>
+        <v>0.16228533605697631</v>
       </c>
       <c r="AK9">
-        <v>-0.1785289524707605</v>
+        <v>0.04926045042554644</v>
       </c>
       <c r="AL9">
-        <v>-0.1593789330046508</v>
+        <v>-0.16818738278922193</v>
       </c>
       <c r="AM9">
-        <v>0.06294244867644827</v>
+        <v>-0.3606196533085309</v>
       </c>
       <c r="AN9">
-        <v>0.48380707994049965</v>
+        <v>-0.38684373831133634</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.22637426305590455</v>
+        <v>-0.2568063226580159</v>
       </c>
       <c r="B10">
-        <v>-0.11929299996438211</v>
+        <v>0.06593032791460889</v>
       </c>
       <c r="C10">
-        <v>-0.23625138083055508</v>
+        <v>0.28787799350003185</v>
       </c>
       <c r="D10">
-        <v>-0.19268047138976704</v>
+        <v>0.3259377473700614</v>
       </c>
       <c r="E10">
-        <v>-0.0779072407528899</v>
+        <v>0.20209488390491875</v>
       </c>
       <c r="F10">
-        <v>0.026678946424047417</v>
+        <v>0.020678503452806595</v>
       </c>
       <c r="G10">
-        <v>0.0687937973499</v>
+        <v>-0.10154159330817088</v>
       </c>
       <c r="H10">
-        <v>0.034153951112256074</v>
+        <v>-0.11023578798177194</v>
       </c>
       <c r="I10">
-        <v>-0.057444320943457604</v>
+        <v>-0.03842402911689491</v>
       </c>
       <c r="J10">
-        <v>-0.16581810820579732</v>
+        <v>0.029970336958815166</v>
       </c>
       <c r="K10">
-        <v>-0.24839199660352865</v>
+        <v>0.022422618653755746</v>
       </c>
       <c r="L10">
-        <v>-0.2763560254361043</v>
+        <v>-0.06440077706172655</v>
       </c>
       <c r="M10">
-        <v>-0.2440246605324825</v>
+        <v>-0.16739066915620993</v>
       </c>
       <c r="N10">
-        <v>-0.1690090862752713</v>
+        <v>-0.2025122517784873</v>
       </c>
       <c r="O10">
-        <v>-0.08395806567341312</v>
+        <v>-0.13305748220568955</v>
       </c>
       <c r="P10">
-        <v>-0.023352768921959723</v>
+        <v>0.006317029553733452</v>
       </c>
       <c r="Q10">
-        <v>-0.010320040298890087</v>
+        <v>0.13480885534834938</v>
       </c>
       <c r="R10">
-        <v>-0.04821411352825735</v>
+        <v>0.18617851651892384</v>
       </c>
       <c r="S10">
-        <v>-0.11990258429767495</v>
+        <v>0.15358120051084262</v>
       </c>
       <c r="T10">
-        <v>-0.19488868684226102</v>
+        <v>0.09104413599648584</v>
       </c>
       <c r="U10">
-        <v>-0.24155329890728708</v>
+        <v>0.06840014445812968</v>
       </c>
       <c r="V10">
-        <v>-0.2398895497400069</v>
+        <v>0.11256397380890981</v>
       </c>
       <c r="W10">
-        <v>-0.18982751481111446</v>
+        <v>0.18546967577716114</v>
       </c>
       <c r="X10">
-        <v>-0.11176780534217293</v>
+        <v>0.2123563491444164</v>
       </c>
       <c r="Y10">
-        <v>-0.03879878627518563</v>
+        <v>0.1440922004473559</v>
       </c>
       <c r="Z10">
-        <v>-0.0032931062078667473</v>
+        <v>0.0025654400203787347</v>
       </c>
       <c r="AA10">
-        <v>-0.02298865579723231</v>
+        <v>-0.13648598410575832</v>
       </c>
       <c r="AB10">
-        <v>-0.09227477571404671</v>
+        <v>-0.19251429639230339</v>
       </c>
       <c r="AC10">
-        <v>-0.18281376755497175</v>
+        <v>-0.14413808929458485</v>
       </c>
       <c r="AD10">
-        <v>-0.2542027065537782</v>
+        <v>-0.049355495646781135</v>
       </c>
       <c r="AE10">
-        <v>-0.27123818607936756</v>
+        <v>0.005116478687661383</v>
       </c>
       <c r="AF10">
-        <v>-0.22103255811597747</v>
+        <v>-0.026929500335725196</v>
       </c>
       <c r="AG10">
-        <v>-0.1221998451480452</v>
+        <v>-0.10784215212500381</v>
       </c>
       <c r="AH10">
-        <v>-0.020382248500260613</v>
+        <v>-0.1435883828321531</v>
       </c>
       <c r="AI10">
-        <v>0.030747254994567024</v>
+        <v>-0.059139762712672926</v>
       </c>
       <c r="AJ10">
-        <v>-0.002376288394660061</v>
+        <v>0.12723369260356765</v>
       </c>
       <c r="AK10">
-        <v>-0.10668461980246872</v>
+        <v>0.2962948772759088</v>
       </c>
       <c r="AL10">
-        <v>-0.21043682683754164</v>
+        <v>0.30694666523297615</v>
       </c>
       <c r="AM10">
-        <v>-0.19578446618398646</v>
+        <v>0.10044917027452653</v>
       </c>
       <c r="AN10">
-        <v>0.06162929903332017</v>
+        <v>-0.23885909218142956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.4406169882837578</v>
+        <v>-0.3765841383991613</v>
       </c>
       <c r="B11">
-        <v>-0.09011310477936299</v>
+        <v>-0.27998487890341106</v>
       </c>
       <c r="C11">
-        <v>-0.2387259081584857</v>
+        <v>-0.1008758709303796</v>
       </c>
       <c r="D11">
-        <v>-0.13292722362059686</v>
+        <v>0.023421911681172077</v>
       </c>
       <c r="E11">
-        <v>0.06712283391089835</v>
+        <v>0.024724522350734884</v>
       </c>
       <c r="F11">
-        <v>0.22801250105255455</v>
+        <v>-0.05541542323721088</v>
       </c>
       <c r="G11">
-        <v>0.27892929015715373</v>
+        <v>-0.11739649728511786</v>
       </c>
       <c r="H11">
-        <v>0.21852030442145587</v>
+        <v>-0.08359560532544423</v>
       </c>
       <c r="I11">
-        <v>0.09669613210301455</v>
+        <v>0.03669032052554343</v>
       </c>
       <c r="J11">
-        <v>-0.01766081367364532</v>
+        <v>0.17033434177978593</v>
       </c>
       <c r="K11">
-        <v>-0.06942144084932247</v>
+        <v>0.23235337601453887</v>
       </c>
       <c r="L11">
-        <v>-0.03867715583014426</v>
+        <v>0.18466742100262365</v>
       </c>
       <c r="M11">
-        <v>0.05520083888781971</v>
+        <v>0.07506707946129801</v>
       </c>
       <c r="N11">
-        <v>0.1660790607005606</v>
+        <v>-0.012286629359334595</v>
       </c>
       <c r="O11">
-        <v>0.24334975096548223</v>
+        <v>-0.029418777978321892</v>
       </c>
       <c r="P11">
-        <v>0.2541769966186998</v>
+        <v>0.007459619743828784</v>
       </c>
       <c r="Q11">
-        <v>0.19670856366505102</v>
+        <v>0.033267171669695575</v>
       </c>
       <c r="R11">
-        <v>0.09940195406962213</v>
+        <v>-0.011367624604564709</v>
       </c>
       <c r="S11">
-        <v>0.0074090294721175605</v>
+        <v>-0.12505222595969667</v>
       </c>
       <c r="T11">
-        <v>-0.03781560641542277</v>
+        <v>-0.2435976881303463</v>
       </c>
       <c r="U11">
-        <v>-0.016865243753053812</v>
+        <v>-0.29149847141564067</v>
       </c>
       <c r="V11">
-        <v>0.059184222928869885</v>
+        <v>-0.23864175341750565</v>
       </c>
       <c r="W11">
-        <v>0.1539402257192457</v>
+        <v>-0.12360600603593315</v>
       </c>
       <c r="X11">
-        <v>0.22233808591085527</v>
+        <v>-0.030171806269816623</v>
       </c>
       <c r="Y11">
-        <v>0.231560726654775</v>
+        <v>-0.00553197124226134</v>
       </c>
       <c r="Z11">
-        <v>0.176842571188349</v>
+        <v>-0.035081463707089734</v>
       </c>
       <c r="AA11">
-        <v>0.08458616074560313</v>
+        <v>-0.04958755258384228</v>
       </c>
       <c r="AB11">
-        <v>0.0005610734799357745</v>
+        <v>0.006680574898528596</v>
       </c>
       <c r="AC11">
-        <v>-0.03222170677479532</v>
+        <v>0.12821215023051352</v>
       </c>
       <c r="AD11">
-        <v>0.004030089887736464</v>
+        <v>0.23910571467370803</v>
       </c>
       <c r="AE11">
-        <v>0.09040728719231925</v>
+        <v>0.25562912945725813</v>
       </c>
       <c r="AF11">
-        <v>0.178147966307803</v>
+        <v>0.16267014609474328</v>
       </c>
       <c r="AG11">
-        <v>0.2129317374371927</v>
+        <v>0.021986445206401025</v>
       </c>
       <c r="AH11">
-        <v>0.16635877195357576</v>
+        <v>-0.06289309124512638</v>
       </c>
       <c r="AI11">
-        <v>0.05815052749091341</v>
+        <v>-0.03932577463200196</v>
       </c>
       <c r="AJ11">
-        <v>-0.04664392408286754</v>
+        <v>0.033667533645914474</v>
       </c>
       <c r="AK11">
-        <v>-0.07203574571090808</v>
+        <v>0.05167904014320288</v>
       </c>
       <c r="AL11">
-        <v>0.011657473688378375</v>
+        <v>-0.06310417713408108</v>
       </c>
       <c r="AM11">
-        <v>0.1323331732054307</v>
+        <v>-0.25828819990323815</v>
       </c>
       <c r="AN11">
-        <v>0.09589152295337802</v>
+        <v>-0.3680593414153741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.10194462002684576</v>
+        <v>-0.2768076614186847</v>
       </c>
       <c r="B12">
-        <v>0.18431168555370198</v>
+        <v>0.1260529864250614</v>
       </c>
       <c r="C12">
-        <v>0.15044512680481018</v>
+        <v>0.29619662170463457</v>
       </c>
       <c r="D12">
-        <v>0.0024995209686377693</v>
+        <v>0.2338802543259002</v>
       </c>
       <c r="E12">
-        <v>-0.1076910975282859</v>
+        <v>0.07005074817270326</v>
       </c>
       <c r="F12">
-        <v>-0.11282617500258123</v>
+        <v>-0.02210858908152817</v>
       </c>
       <c r="G12">
-        <v>-0.024722237237205007</v>
+        <v>0.027559801787245295</v>
       </c>
       <c r="H12">
-        <v>0.09672180550022434</v>
+        <v>0.1480654354460872</v>
       </c>
       <c r="I12">
-        <v>0.18402090593785142</v>
+        <v>0.23916374562163975</v>
       </c>
       <c r="J12">
-        <v>0.19579762402697198</v>
+        <v>0.21096492103646658</v>
       </c>
       <c r="K12">
-        <v>0.13255032543325385</v>
+        <v>0.06426518941201766</v>
       </c>
       <c r="L12">
-        <v>0.03152593797095532</v>
+        <v>-0.08854059700894226</v>
       </c>
       <c r="M12">
-        <v>-0.05411406954910091</v>
+        <v>-0.15148923186765575</v>
       </c>
       <c r="N12">
-        <v>-0.08126305259523449</v>
+        <v>-0.09980692032564487</v>
       </c>
       <c r="O12">
-        <v>-0.036456621059237235</v>
+        <v>-0.013258821139553756</v>
       </c>
       <c r="P12">
-        <v>0.05891721582942018</v>
+        <v>0.020507155369850826</v>
       </c>
       <c r="Q12">
-        <v>0.15935057423206342</v>
+        <v>-0.04051473647724932</v>
       </c>
       <c r="R12">
-        <v>0.21668791505057333</v>
+        <v>-0.14144306497502063</v>
       </c>
       <c r="S12">
-        <v>0.20267409531593397</v>
+        <v>-0.19648103649594728</v>
       </c>
       <c r="T12">
-        <v>0.12251045411547666</v>
+        <v>-0.14168987426018964</v>
       </c>
       <c r="U12">
-        <v>0.013187397668599965</v>
+        <v>-0.00024986786349195196</v>
       </c>
       <c r="V12">
-        <v>-0.07305752380454242</v>
+        <v>0.13494039495682844</v>
       </c>
       <c r="W12">
-        <v>-0.09314173707466507</v>
+        <v>0.17210315949917832</v>
       </c>
       <c r="X12">
-        <v>-0.034465529161443124</v>
+        <v>0.10771837911450724</v>
       </c>
       <c r="Y12">
-        <v>0.07707382219647063</v>
+        <v>0.02004200017373761</v>
       </c>
       <c r="Z12">
-        <v>0.1872464290594442</v>
+        <v>0.00027864296248196897</v>
       </c>
       <c r="AA12">
-        <v>0.23858334043273408</v>
+        <v>0.06494341004432264</v>
       </c>
       <c r="AB12">
-        <v>0.19964554505587007</v>
+        <v>0.16182540531836237</v>
       </c>
       <c r="AC12">
-        <v>0.08432367083112591</v>
+        <v>0.17711116475236072</v>
       </c>
       <c r="AD12">
-        <v>-0.05008897514979832</v>
+        <v>0.06644510359290853</v>
       </c>
       <c r="AE12">
-        <v>-0.12846984188795038</v>
+        <v>-0.10583737564533892</v>
       </c>
       <c r="AF12">
-        <v>-0.09782387100441427</v>
+        <v>-0.228877330292735</v>
       </c>
       <c r="AG12">
-        <v>0.037148398665938685</v>
+        <v>-0.2081367201370798</v>
       </c>
       <c r="AH12">
-        <v>0.2039028987424191</v>
+        <v>-0.0868259007316459</v>
       </c>
       <c r="AI12">
-        <v>0.29050829425197566</v>
+        <v>-0.0011767630284731986</v>
       </c>
       <c r="AJ12">
-        <v>0.20910168822947453</v>
+        <v>-0.05324271808581299</v>
       </c>
       <c r="AK12">
-        <v>-0.029334489675670684</v>
+        <v>-0.2204799736659702</v>
       </c>
       <c r="AL12">
-        <v>-0.2671514320424657</v>
+        <v>-0.33399911769062424</v>
       </c>
       <c r="AM12">
-        <v>-0.21781135471741775</v>
+        <v>-0.18825222826117755</v>
       </c>
       <c r="AN12">
-        <v>0.4307875823703426</v>
+        <v>0.26562571445558686</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.25479076427824243</v>
+        <v>-0.33024789817618727</v>
       </c>
       <c r="B13">
-        <v>0.24868650604140055</v>
+        <v>-0.16599760525964075</v>
       </c>
       <c r="C13">
-        <v>0.19270088084172746</v>
+        <v>-0.02274691789200623</v>
       </c>
       <c r="D13">
-        <v>-0.04308057873772388</v>
+        <v>-0.017440128770455324</v>
       </c>
       <c r="E13">
-        <v>-0.20049333121910093</v>
+        <v>-0.1700714632847171</v>
       </c>
       <c r="F13">
-        <v>-0.18867057313278793</v>
+        <v>-0.3001149101328424</v>
       </c>
       <c r="G13">
-        <v>-0.053520310853260124</v>
+        <v>-0.2929640368918474</v>
       </c>
       <c r="H13">
-        <v>0.09594335774062816</v>
+        <v>-0.18860648610486697</v>
       </c>
       <c r="I13">
-        <v>0.1645030905209821</v>
+        <v>-0.03373440960982368</v>
       </c>
       <c r="J13">
-        <v>0.11927735286524066</v>
+        <v>0.006329994633955487</v>
       </c>
       <c r="K13">
-        <v>-0.0037076067471228896</v>
+        <v>-0.036753115744551854</v>
       </c>
       <c r="L13">
-        <v>-0.12876551512001352</v>
+        <v>-0.12200327285431004</v>
       </c>
       <c r="M13">
-        <v>-0.1854944208406073</v>
+        <v>-0.11547910094408552</v>
       </c>
       <c r="N13">
-        <v>-0.14563786445685936</v>
+        <v>0.01772529719316661</v>
       </c>
       <c r="O13">
-        <v>-0.03492685365674513</v>
+        <v>0.1410381707480347</v>
       </c>
       <c r="P13">
-        <v>0.08360268121103132</v>
+        <v>0.18769408208148192</v>
       </c>
       <c r="Q13">
-        <v>0.14454693683582975</v>
+        <v>0.15066692231096437</v>
       </c>
       <c r="R13">
-        <v>0.1149259171900477</v>
+        <v>0.051982982967762666</v>
       </c>
       <c r="S13">
-        <v>0.01126771132849897</v>
+        <v>-0.03571280479442724</v>
       </c>
       <c r="T13">
-        <v>-0.10943553062526827</v>
+        <v>-0.02440074797517864</v>
       </c>
       <c r="U13">
-        <v>-0.1802161276248587</v>
+        <v>0.048631562746966533</v>
       </c>
       <c r="V13">
-        <v>-0.1604715875697731</v>
+        <v>0.0772828726141619</v>
       </c>
       <c r="W13">
-        <v>-0.05914090966917576</v>
+        <v>0.03228803983125263</v>
       </c>
       <c r="X13">
-        <v>0.06826018069503244</v>
+        <v>-0.10826052877734797</v>
       </c>
       <c r="Y13">
-        <v>0.1486607560573369</v>
+        <v>-0.1723320947970884</v>
       </c>
       <c r="Z13">
-        <v>0.1324077212826602</v>
+        <v>-0.19343788516999327</v>
       </c>
       <c r="AA13">
-        <v>0.02422519629966352</v>
+        <v>-0.09787172177834128</v>
       </c>
       <c r="AB13">
-        <v>-0.11467540050546672</v>
+        <v>0.04398079397326172</v>
       </c>
       <c r="AC13">
-        <v>-0.19822153123110536</v>
+        <v>0.061091396586754505</v>
       </c>
       <c r="AD13">
-        <v>-0.16682395066532918</v>
+        <v>0.02028406673545219</v>
       </c>
       <c r="AE13">
-        <v>-0.030126129782207727</v>
+        <v>-0.031062166869479334</v>
       </c>
       <c r="AF13">
-        <v>0.12779401757652126</v>
+        <v>0.016164903454780707</v>
       </c>
       <c r="AG13">
-        <v>0.19304925748588228</v>
+        <v>0.13645695289341161</v>
       </c>
       <c r="AH13">
-        <v>0.0996943276517117</v>
+        <v>0.2648507271741127</v>
       </c>
       <c r="AI13">
-        <v>-0.10403738839892229</v>
+        <v>0.33347819918634175</v>
       </c>
       <c r="AJ13">
-        <v>-0.25557599403099784</v>
+        <v>0.20193823891952253</v>
       </c>
       <c r="AK13">
-        <v>-0.17777956026646646</v>
+        <v>0.08497241334326097</v>
       </c>
       <c r="AL13">
-        <v>0.13892598139091442</v>
+        <v>0.055567780746875156</v>
       </c>
       <c r="AM13">
-        <v>0.3545524600269201</v>
+        <v>0.19933714418918363</v>
       </c>
       <c r="AN13">
-        <v>-0.2727427467957708</v>
+        <v>0.3358744978480087</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.21108679066358776</v>
+        <v>0.37705414096325574</v>
       </c>
       <c r="B14">
-        <v>0.3465306096963787</v>
+        <v>-0.23741865921626285</v>
       </c>
       <c r="C14">
-        <v>0.0932023467647429</v>
+        <v>-0.203793064297031</v>
       </c>
       <c r="D14">
-        <v>-0.1915492939021759</v>
+        <v>-0.022915093454980103</v>
       </c>
       <c r="E14">
-        <v>-0.22422658481811394</v>
+        <v>0.2220141872629297</v>
       </c>
       <c r="F14">
-        <v>-0.05633904064511021</v>
+        <v>0.10372366052134203</v>
       </c>
       <c r="G14">
-        <v>0.132679464188035</v>
+        <v>-0.022173660473241007</v>
       </c>
       <c r="H14">
-        <v>0.2006079858261685</v>
+        <v>-0.22291263243223006</v>
       </c>
       <c r="I14">
-        <v>0.1190833968882693</v>
+        <v>-0.21109642346686336</v>
       </c>
       <c r="J14">
-        <v>-0.03823835673016379</v>
+        <v>-0.014689714513920957</v>
       </c>
       <c r="K14">
-        <v>-0.16125816623587244</v>
+        <v>0.08730064253143961</v>
       </c>
       <c r="L14">
-        <v>-0.175007375082809</v>
+        <v>0.09390050975458801</v>
       </c>
       <c r="M14">
-        <v>-0.07875671621271413</v>
+        <v>-0.01643058895050613</v>
       </c>
       <c r="N14">
-        <v>0.06207206327854947</v>
+        <v>-0.23834407900616966</v>
       </c>
       <c r="O14">
-        <v>0.159990146588809</v>
+        <v>-0.16150559622711447</v>
       </c>
       <c r="P14">
-        <v>0.1576733671289569</v>
+        <v>-0.014379434713495344</v>
       </c>
       <c r="Q14">
-        <v>0.059385224423266436</v>
+        <v>0.12884938941731383</v>
       </c>
       <c r="R14">
-        <v>-0.07405296679457857</v>
+        <v>0.11473132356605305</v>
       </c>
       <c r="S14">
-        <v>-0.1621591410777229</v>
+        <v>0.06904493650059372</v>
       </c>
       <c r="T14">
-        <v>-0.1520951359508857</v>
+        <v>-0.1125103805703416</v>
       </c>
       <c r="U14">
-        <v>-0.049716524678425585</v>
+        <v>-0.13976431180882404</v>
       </c>
       <c r="V14">
-        <v>0.08330706131654375</v>
+        <v>0.0050795465065074956</v>
       </c>
       <c r="W14">
-        <v>0.1653264265176563</v>
+        <v>0.07074740373442805</v>
       </c>
       <c r="X14">
-        <v>0.14379386650940185</v>
+        <v>0.16341519878651842</v>
       </c>
       <c r="Y14">
-        <v>0.029175291274662542</v>
+        <v>0.04581567147302625</v>
       </c>
       <c r="Z14">
-        <v>-0.10787323574127225</v>
+        <v>-0.11894100808354488</v>
       </c>
       <c r="AA14">
-        <v>-0.17758971043210722</v>
+        <v>-0.22106341246055683</v>
       </c>
       <c r="AB14">
-        <v>-0.1286762716276366</v>
+        <v>-0.07856255611679931</v>
       </c>
       <c r="AC14">
-        <v>0.012776221390843934</v>
+        <v>0.0363875037155131</v>
       </c>
       <c r="AD14">
-        <v>0.15183718657800754</v>
+        <v>0.0746657751968505</v>
       </c>
       <c r="AE14">
-        <v>0.18355389253483093</v>
+        <v>0.03301644089107592</v>
       </c>
       <c r="AF14">
-        <v>0.07087604377683455</v>
+        <v>-0.15260429171174222</v>
       </c>
       <c r="AG14">
-        <v>-0.11150384796098758</v>
+        <v>-0.21049095956989816</v>
       </c>
       <c r="AH14">
-        <v>-0.21219293124660002</v>
+        <v>-0.04658211536210085</v>
       </c>
       <c r="AI14">
-        <v>-0.11735995139080342</v>
+        <v>0.056317788224530214</v>
       </c>
       <c r="AJ14">
-        <v>0.1207941532934923</v>
+        <v>0.22433238577056117</v>
       </c>
       <c r="AK14">
-        <v>0.2576133781295097</v>
+        <v>0.02186413572232777</v>
       </c>
       <c r="AL14">
-        <v>0.042882870677680096</v>
+        <v>-0.15801452772305735</v>
       </c>
       <c r="AM14">
-        <v>-0.35639047598806534</v>
+        <v>-0.2067385727532284</v>
       </c>
       <c r="AN14">
-        <v>0.16271337637356934</v>
+        <v>0.3679737460447767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.19897229252802492</v>
+        <v>-0.024075498253551025</v>
       </c>
       <c r="B15">
-        <v>0.48901583558610096</v>
+        <v>0.18869807557820106</v>
       </c>
       <c r="C15">
-        <v>-0.14026807449798898</v>
+        <v>-0.35480971255436117</v>
       </c>
       <c r="D15">
-        <v>-0.3491138449379029</v>
+        <v>0.34738484296842065</v>
       </c>
       <c r="E15">
-        <v>-0.07989040510782619</v>
+        <v>-0.23885059970229564</v>
       </c>
       <c r="F15">
-        <v>0.2190200095871888</v>
+        <v>0.12862307310569204</v>
       </c>
       <c r="G15">
-        <v>0.25481673261833954</v>
+        <v>0.03488192086890066</v>
       </c>
       <c r="H15">
-        <v>0.055881794239320166</v>
+        <v>-0.08568495556117309</v>
       </c>
       <c r="I15">
-        <v>-0.16667010760059686</v>
+        <v>-0.02274396534797385</v>
       </c>
       <c r="J15">
-        <v>-0.23140765766842117</v>
+        <v>0.07518293031882087</v>
       </c>
       <c r="K15">
-        <v>-0.11080092445320919</v>
+        <v>-0.06312692204259565</v>
       </c>
       <c r="L15">
-        <v>0.08220424656902667</v>
+        <v>0.021880876144373645</v>
       </c>
       <c r="M15">
-        <v>0.19878451924880647</v>
+        <v>0.03696671207112146</v>
       </c>
       <c r="N15">
-        <v>0.1624869779127195</v>
+        <v>0.019163558552963204</v>
       </c>
       <c r="O15">
-        <v>0.011746361508604546</v>
+        <v>-0.2250591412023834</v>
       </c>
       <c r="P15">
-        <v>-0.13936071184116214</v>
+        <v>0.29121724708550883</v>
       </c>
       <c r="Q15">
-        <v>-0.18560303601223563</v>
+        <v>-0.24175706242437087</v>
       </c>
       <c r="R15">
-        <v>-0.10092122845918285</v>
+        <v>0.13727179322833655</v>
       </c>
       <c r="S15">
-        <v>0.04935958612081172</v>
+        <v>0.011150225944916879</v>
       </c>
       <c r="T15">
-        <v>0.15792593814971106</v>
+        <v>-0.08085652592208889</v>
       </c>
       <c r="U15">
-        <v>0.1505640819584451</v>
+        <v>0.0008274285707805685</v>
       </c>
       <c r="V15">
-        <v>0.03618546742256964</v>
+        <v>0.046244699507611245</v>
       </c>
       <c r="W15">
-        <v>-0.10112221852175972</v>
+        <v>-0.02517146045691289</v>
       </c>
       <c r="X15">
-        <v>-0.16213262893242272</v>
+        <v>-0.06884811743049715</v>
       </c>
       <c r="Y15">
-        <v>-0.103525073022094</v>
+        <v>0.2252243180243127</v>
       </c>
       <c r="Z15">
-        <v>0.02985638521885414</v>
+        <v>-0.2362768122756726</v>
       </c>
       <c r="AA15">
-        <v>0.13635089152433993</v>
+        <v>0.0517175781455381</v>
       </c>
       <c r="AB15">
-        <v>0.13309506331114826</v>
+        <v>0.07608353199732515</v>
       </c>
       <c r="AC15">
-        <v>0.022062739274600885</v>
+        <v>-0.10674519181495044</v>
       </c>
       <c r="AD15">
-        <v>-0.10611891674460139</v>
+        <v>0.051885038711519664</v>
       </c>
       <c r="AE15">
-        <v>-0.1414540778702546</v>
+        <v>0.05386211473282118</v>
       </c>
       <c r="AF15">
-        <v>-0.049606954527976324</v>
+        <v>-0.10406191075082956</v>
       </c>
       <c r="AG15">
-        <v>0.08687167048992894</v>
+        <v>0.009436689625964563</v>
       </c>
       <c r="AH15">
-        <v>0.13225145721697984</v>
+        <v>0.021417817355389744</v>
       </c>
       <c r="AI15">
-        <v>0.031964929401958886</v>
+        <v>-0.007505969704487156</v>
       </c>
       <c r="AJ15">
-        <v>-0.10440940949500876</v>
+        <v>-0.07185062452026796</v>
       </c>
       <c r="AK15">
-        <v>-0.09672170362005146</v>
+        <v>0.23056123552398278</v>
       </c>
       <c r="AL15">
-        <v>0.05705554901790058</v>
+        <v>-0.356279912544096</v>
       </c>
       <c r="AM15">
-        <v>0.07235002409806546</v>
+        <v>0.2484495962146669</v>
       </c>
       <c r="AN15">
-        <v>-0.04507442655246989</v>
+        <v>-0.0733701653102243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.022238518994305446</v>
+        <v>0.13575767489217033</v>
       </c>
       <c r="B16">
-        <v>-0.02033248334716153</v>
+        <v>-0.2785075816694979</v>
       </c>
       <c r="C16">
-        <v>0.11488111348003337</v>
+        <v>0.1861545478346755</v>
       </c>
       <c r="D16">
-        <v>0.014115525387502326</v>
+        <v>0.09357906054190777</v>
       </c>
       <c r="E16">
-        <v>-0.11577748005261729</v>
+        <v>-0.21247611704678443</v>
       </c>
       <c r="F16">
-        <v>-0.10218264182200006</v>
+        <v>0.21854095277623953</v>
       </c>
       <c r="G16">
-        <v>0.025549574555495665</v>
+        <v>-0.0846751165137694</v>
       </c>
       <c r="H16">
-        <v>0.12944044911874789</v>
+        <v>-0.09974062959608836</v>
       </c>
       <c r="I16">
-        <v>0.11308823689575755</v>
+        <v>0.15139938900749994</v>
       </c>
       <c r="J16">
-        <v>-0.004521226136185428</v>
+        <v>-0.0007566259268107743</v>
       </c>
       <c r="K16">
-        <v>-0.12154954253453577</v>
+        <v>-0.08520354220301381</v>
       </c>
       <c r="L16">
-        <v>-0.14287741970224546</v>
+        <v>0.09948543065195375</v>
       </c>
       <c r="M16">
-        <v>-0.052335606197839786</v>
+        <v>0.03017746868227167</v>
       </c>
       <c r="N16">
-        <v>0.0803344851281987</v>
+        <v>-0.2490840528737282</v>
       </c>
       <c r="O16">
-        <v>0.15493096910357718</v>
+        <v>0.2622006343483501</v>
       </c>
       <c r="P16">
-        <v>0.11481857628999104</v>
+        <v>-0.033247345708616025</v>
       </c>
       <c r="Q16">
-        <v>-0.012669970551519753</v>
+        <v>-0.17135888927180953</v>
       </c>
       <c r="R16">
-        <v>-0.1359498286578516</v>
+        <v>0.24644382961360806</v>
       </c>
       <c r="S16">
-        <v>-0.1643009744277857</v>
+        <v>-0.15813726903676648</v>
       </c>
       <c r="T16">
-        <v>-0.07329252094455768</v>
+        <v>-0.06843346266518732</v>
       </c>
       <c r="U16">
-        <v>0.07509250989555236</v>
+        <v>0.13694754084405666</v>
       </c>
       <c r="V16">
-        <v>0.1734359307478624</v>
+        <v>0.004897929193932259</v>
       </c>
       <c r="W16">
-        <v>0.14519326993820042</v>
+        <v>-0.16242028913524267</v>
       </c>
       <c r="X16">
-        <v>0.003964814140101625</v>
+        <v>0.24282869214698669</v>
       </c>
       <c r="Y16">
-        <v>-0.1490975857094722</v>
+        <v>-0.11882013569917146</v>
       </c>
       <c r="Z16">
-        <v>-0.19455844128229213</v>
+        <v>-0.15018261607853844</v>
       </c>
       <c r="AA16">
-        <v>-0.08665677465316084</v>
+        <v>0.25413417280554407</v>
       </c>
       <c r="AB16">
-        <v>0.10014753249451346</v>
+        <v>-0.10253613043876614</v>
       </c>
       <c r="AC16">
-        <v>0.21519446711814783</v>
+        <v>-0.0670553288763174</v>
       </c>
       <c r="AD16">
-        <v>0.1483445466398512</v>
+        <v>0.17468871950768516</v>
       </c>
       <c r="AE16">
-        <v>-0.06338629923342587</v>
+        <v>-0.12623289771631704</v>
       </c>
       <c r="AF16">
-        <v>-0.2372467500190141</v>
+        <v>-0.06384522146898428</v>
       </c>
       <c r="AG16">
-        <v>-0.1877341126257473</v>
+        <v>0.12197791237596727</v>
       </c>
       <c r="AH16">
-        <v>0.07716040728202608</v>
+        <v>-0.014380244207853613</v>
       </c>
       <c r="AI16">
-        <v>0.29177531842005267</v>
+        <v>-0.13931472138768197</v>
       </c>
       <c r="AJ16">
-        <v>0.15126634639708172</v>
+        <v>0.24193442930307726</v>
       </c>
       <c r="AK16">
-        <v>-0.26557189855817864</v>
+        <v>-0.23978979267048378</v>
       </c>
       <c r="AL16">
-        <v>-0.31184493863669394</v>
+        <v>-0.0006105714855803475</v>
       </c>
       <c r="AM16">
-        <v>0.4452333581826023</v>
+        <v>0.15647994975753607</v>
       </c>
       <c r="AN16">
-        <v>-0.144146372195372</v>
+        <v>-0.10936726548828453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.08062122118970823</v>
+        <v>-0.022885719344076242</v>
       </c>
       <c r="B17">
-        <v>-0.2887553804256184</v>
+        <v>0.11602550278671303</v>
       </c>
       <c r="C17">
-        <v>0.2578898659996555</v>
+        <v>-0.11335074999375648</v>
       </c>
       <c r="D17">
-        <v>0.151578466259228</v>
+        <v>-0.01649425810658179</v>
       </c>
       <c r="E17">
-        <v>-0.16297773760691717</v>
+        <v>-0.07049525627793245</v>
       </c>
       <c r="F17">
-        <v>-0.20695165200165963</v>
+        <v>0.32530795757698516</v>
       </c>
       <c r="G17">
-        <v>0.0024823407963402624</v>
+        <v>-0.3742607894320247</v>
       </c>
       <c r="H17">
-        <v>0.1861570050560483</v>
+        <v>0.2316040296476818</v>
       </c>
       <c r="I17">
-        <v>0.1611407703415689</v>
+        <v>-0.13251303564351766</v>
       </c>
       <c r="J17">
-        <v>-0.019911077904780965</v>
+        <v>-0.02076973185735944</v>
       </c>
       <c r="K17">
-        <v>-0.17086082249948256</v>
+        <v>0.000765264790562272</v>
       </c>
       <c r="L17">
-        <v>-0.15836461295435042</v>
+        <v>0.1493255147644976</v>
       </c>
       <c r="M17">
-        <v>-0.006003822870495422</v>
+        <v>-0.2144394888297123</v>
       </c>
       <c r="N17">
-        <v>0.14625608898348127</v>
+        <v>0.1658633343409684</v>
       </c>
       <c r="O17">
-        <v>0.16932542480075227</v>
+        <v>-0.15743476675102264</v>
       </c>
       <c r="P17">
-        <v>0.049142015081106126</v>
+        <v>-0.0020527225450202692</v>
       </c>
       <c r="Q17">
-        <v>-0.11011179655613554</v>
+        <v>0.028248263036444458</v>
       </c>
       <c r="R17">
-        <v>-0.1756669638797081</v>
+        <v>0.19349021791607982</v>
       </c>
       <c r="S17">
-        <v>-0.09459068251601557</v>
+        <v>-0.3788997205285192</v>
       </c>
       <c r="T17">
-        <v>0.06526019978088131</v>
+        <v>0.3516879412842771</v>
       </c>
       <c r="U17">
-        <v>0.17108301922672853</v>
+        <v>-0.20341225203843621</v>
       </c>
       <c r="V17">
-        <v>0.13336592489827037</v>
+        <v>-0.030424612947249588</v>
       </c>
       <c r="W17">
-        <v>-0.018423195544327392</v>
+        <v>0.05769311625914563</v>
       </c>
       <c r="X17">
-        <v>-0.15682508037846676</v>
+        <v>0.10240751040412711</v>
       </c>
       <c r="Y17">
-        <v>-0.16036750507106526</v>
+        <v>-0.14254924252746226</v>
       </c>
       <c r="Z17">
-        <v>-0.019938301202523902</v>
+        <v>0.058851614599789735</v>
       </c>
       <c r="AA17">
-        <v>0.1435825689314611</v>
+        <v>-0.02376166644654439</v>
       </c>
       <c r="AB17">
-        <v>0.17812895966044695</v>
+        <v>-0.12659284381941335</v>
       </c>
       <c r="AC17">
-        <v>0.04001951045763551</v>
+        <v>0.16841548222835598</v>
       </c>
       <c r="AD17">
-        <v>-0.14632696399367898</v>
+        <v>-0.03343268268129308</v>
       </c>
       <c r="AE17">
-        <v>-0.18934233166522474</v>
+        <v>-0.12780823493273025</v>
       </c>
       <c r="AF17">
-        <v>-0.022923301597092986</v>
+        <v>0.15868086748537483</v>
       </c>
       <c r="AG17">
-        <v>0.186368157290549</v>
+        <v>-0.1440617900409913</v>
       </c>
       <c r="AH17">
-        <v>0.17821146930552664</v>
+        <v>-0.05207571895308807</v>
       </c>
       <c r="AI17">
-        <v>-0.08369276481247781</v>
+        <v>0.15001848177368024</v>
       </c>
       <c r="AJ17">
-        <v>-0.25610120039928397</v>
+        <v>-0.018396751902282803</v>
       </c>
       <c r="AK17">
-        <v>0.010567435735726735</v>
+        <v>-0.07476291738036302</v>
       </c>
       <c r="AL17">
-        <v>0.33347317814919697</v>
+        <v>-0.02179451998053091</v>
       </c>
       <c r="AM17">
-        <v>-0.25205348767573416</v>
+        <v>0.06522238151665528</v>
       </c>
       <c r="AN17">
-        <v>0.05896050808096107</v>
+        <v>-0.014512896646054424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.05154512492221829</v>
+        <v>-0.049820280132340876</v>
       </c>
       <c r="B18">
-        <v>0.2288787650135066</v>
+        <v>0.145940700707832</v>
       </c>
       <c r="C18">
-        <v>-0.3062549324404114</v>
+        <v>-0.06972040550804355</v>
       </c>
       <c r="D18">
-        <v>-0.01741811803052601</v>
+        <v>-0.1039049357192255</v>
       </c>
       <c r="E18">
-        <v>0.23821179091553107</v>
+        <v>0.019903280584071266</v>
       </c>
       <c r="F18">
-        <v>0.09251753448917736</v>
+        <v>0.10248939752820163</v>
       </c>
       <c r="G18">
-        <v>-0.15688024467906292</v>
+        <v>0.051228357805702694</v>
       </c>
       <c r="H18">
-        <v>-0.1863865310477287</v>
+        <v>-0.2529259571040747</v>
       </c>
       <c r="I18">
-        <v>-0.0011877962732591415</v>
+        <v>0.28068180349397975</v>
       </c>
       <c r="J18">
-        <v>0.17227729885132387</v>
+        <v>-0.30304781091395405</v>
       </c>
       <c r="K18">
-        <v>0.15821111806923896</v>
+        <v>0.137724313594827</v>
       </c>
       <c r="L18">
-        <v>-0.015614771456685338</v>
+        <v>0.04206848087007458</v>
       </c>
       <c r="M18">
-        <v>-0.16564955332535827</v>
+        <v>-0.0714752731105267</v>
       </c>
       <c r="N18">
-        <v>-0.15452920903541695</v>
+        <v>0.020182517618577023</v>
       </c>
       <c r="O18">
-        <v>0.0019020223496509366</v>
+        <v>-0.002170361779817614</v>
       </c>
       <c r="P18">
-        <v>0.15219037096841753</v>
+        <v>-0.15997449413142575</v>
       </c>
       <c r="Q18">
-        <v>0.16237528253599492</v>
+        <v>0.1206853447366765</v>
       </c>
       <c r="R18">
-        <v>0.024784953892593446</v>
+        <v>0.051454853279486</v>
       </c>
       <c r="S18">
-        <v>-0.13636445050987928</v>
+        <v>-0.048645510992163056</v>
       </c>
       <c r="T18">
-        <v>-0.17144197890906235</v>
+        <v>-0.14109379445318304</v>
       </c>
       <c r="U18">
-        <v>-0.05098358287384679</v>
+        <v>0.3257203624643181</v>
       </c>
       <c r="V18">
-        <v>0.11692951115060057</v>
+        <v>-0.4463599346612725</v>
       </c>
       <c r="W18">
-        <v>0.1788526624621143</v>
+        <v>0.29705517102764056</v>
       </c>
       <c r="X18">
-        <v>0.073473502426708</v>
+        <v>-0.08305886128094328</v>
       </c>
       <c r="Y18">
-        <v>-0.10472488633272338</v>
+        <v>0.05382723949462588</v>
       </c>
       <c r="Z18">
-        <v>-0.18703194324414807</v>
+        <v>-0.07151151307643427</v>
       </c>
       <c r="AA18">
-        <v>-0.0816178213944774</v>
+        <v>0.04153517620851957</v>
       </c>
       <c r="AB18">
-        <v>0.11068129710489938</v>
+        <v>-0.1387428343822323</v>
       </c>
       <c r="AC18">
-        <v>0.19487790432100763</v>
+        <v>0.08672144197718687</v>
       </c>
       <c r="AD18">
-        <v>0.06482664595111534</v>
+        <v>0.06366479727671133</v>
       </c>
       <c r="AE18">
-        <v>-0.14775264392385246</v>
+        <v>-0.13152376415970596</v>
       </c>
       <c r="AF18">
-        <v>-0.19665181269067583</v>
+        <v>0.03929485016089189</v>
       </c>
       <c r="AG18">
-        <v>0.011880179882748303</v>
+        <v>0.07484307044460105</v>
       </c>
       <c r="AH18">
-        <v>0.22823623745308474</v>
+        <v>-0.27142842800745587</v>
       </c>
       <c r="AI18">
-        <v>0.11019373739738593</v>
+        <v>0.23916504431832897</v>
       </c>
       <c r="AJ18">
-        <v>-0.22520056827758564</v>
+        <v>-0.06399197626750246</v>
       </c>
       <c r="AK18">
-        <v>-0.16123464560581802</v>
+        <v>0.03586070952413354</v>
       </c>
       <c r="AL18">
-        <v>0.3503115652309816</v>
+        <v>-0.11916607360414998</v>
       </c>
       <c r="AM18">
-        <v>-0.18850859134491682</v>
+        <v>0.07181358349363207</v>
       </c>
       <c r="AN18">
-        <v>0.03544552508281147</v>
+        <v>0.004645112545138416</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.013072903713623572</v>
+        <v>-0.031921313258797455</v>
       </c>
       <c r="B19">
-        <v>0.07769394272214539</v>
+        <v>0.026203848353171747</v>
       </c>
       <c r="C19">
-        <v>-0.1838526579002922</v>
+        <v>0.046805384644444725</v>
       </c>
       <c r="D19">
-        <v>0.20982054759389474</v>
+        <v>-0.09142251383859651</v>
       </c>
       <c r="E19">
-        <v>-0.12127452420348882</v>
+        <v>0.06443713505452378</v>
       </c>
       <c r="F19">
-        <v>0.09221743109710841</v>
+        <v>-0.12369778274955989</v>
       </c>
       <c r="G19">
-        <v>-0.14675423449452982</v>
+        <v>0.21263308518947088</v>
       </c>
       <c r="H19">
-        <v>0.07076349645015623</v>
+        <v>-0.21760204358470286</v>
       </c>
       <c r="I19">
-        <v>0.1076955445697001</v>
+        <v>0.151955291657915</v>
       </c>
       <c r="J19">
-        <v>-0.14869988992263158</v>
+        <v>-0.05827493207048994</v>
       </c>
       <c r="K19">
-        <v>0.05755440660812197</v>
+        <v>-0.06885613935038794</v>
       </c>
       <c r="L19">
-        <v>0.006104828411986019</v>
+        <v>0.1340952412369638</v>
       </c>
       <c r="M19">
-        <v>-0.008779224700999554</v>
+        <v>-0.16832363030013722</v>
       </c>
       <c r="N19">
-        <v>0.02055698738173963</v>
+        <v>0.21336519556917777</v>
       </c>
       <c r="O19">
-        <v>-0.0498190739601335</v>
+        <v>-0.18972502721602494</v>
       </c>
       <c r="P19">
-        <v>0.009493411464634921</v>
+        <v>0.15150492879369437</v>
       </c>
       <c r="Q19">
-        <v>0.010565890120047168</v>
+        <v>-0.18248390048688584</v>
       </c>
       <c r="R19">
-        <v>0.09552263480880806</v>
+        <v>0.17904099490700542</v>
       </c>
       <c r="S19">
-        <v>-0.05962947232234077</v>
+        <v>-0.08163657007809512</v>
       </c>
       <c r="T19">
-        <v>-0.14152745679717113</v>
+        <v>-0.006544139146607799</v>
       </c>
       <c r="U19">
-        <v>0.1201497402901418</v>
+        <v>0.04193451011117667</v>
       </c>
       <c r="V19">
-        <v>-0.015371133983185419</v>
+        <v>0.01636224004517702</v>
       </c>
       <c r="W19">
-        <v>0.09596788920045388</v>
+        <v>-0.1309537205866143</v>
       </c>
       <c r="X19">
-        <v>-0.08515715214146312</v>
+        <v>0.18031564358447053</v>
       </c>
       <c r="Y19">
-        <v>-0.0015892547736644802</v>
+        <v>-0.20495727336293385</v>
       </c>
       <c r="Z19">
-        <v>-0.04761421121987913</v>
+        <v>0.26929496021280974</v>
       </c>
       <c r="AA19">
-        <v>-0.05716095325450086</v>
+        <v>-0.29473945718738714</v>
       </c>
       <c r="AB19">
-        <v>0.2929650107632279</v>
+        <v>0.28103389941897755</v>
       </c>
       <c r="AC19">
-        <v>-0.2648733936250622</v>
+        <v>-0.30677913491439257</v>
       </c>
       <c r="AD19">
-        <v>0.17725078573495898</v>
+        <v>0.31043168633058643</v>
       </c>
       <c r="AE19">
-        <v>-0.263883038519558</v>
+        <v>-0.2513279489944602</v>
       </c>
       <c r="AF19">
-        <v>0.22589848064755097</v>
+        <v>0.16777549399561195</v>
       </c>
       <c r="AG19">
-        <v>-0.02753171625417269</v>
+        <v>-0.054254073249390425</v>
       </c>
       <c r="AH19">
-        <v>-0.09008311280730406</v>
+        <v>-0.0031975489889210728</v>
       </c>
       <c r="AI19">
-        <v>0.2064191080254928</v>
+        <v>-0.017016093138891276</v>
       </c>
       <c r="AJ19">
-        <v>-0.38664258151372055</v>
+        <v>0.02175707686937747</v>
       </c>
       <c r="AK19">
-        <v>0.4198106360176959</v>
+        <v>0.02674263763297183</v>
       </c>
       <c r="AL19">
-        <v>-0.25390532139327415</v>
+        <v>0.0018599921382559885</v>
       </c>
       <c r="AM19">
-        <v>0.0819104436765107</v>
+        <v>-0.04542765985063228</v>
       </c>
       <c r="AN19">
-        <v>-0.011184238435053976</v>
+        <v>0.0358799549795941</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.0002219945713029049</v>
+        <v>-0.028662723958329632</v>
       </c>
       <c r="B20">
-        <v>0.0020875155446795617</v>
+        <v>0.019022810712919253</v>
       </c>
       <c r="C20">
-        <v>-0.019347467383436127</v>
+        <v>0.04698120470142865</v>
       </c>
       <c r="D20">
-        <v>0.056967075700188816</v>
+        <v>-0.08378962773435145</v>
       </c>
       <c r="E20">
-        <v>-0.07564454901453863</v>
+        <v>0.015591658872675664</v>
       </c>
       <c r="F20">
-        <v>0.016501179148799703</v>
+        <v>-0.008102972966174484</v>
       </c>
       <c r="G20">
-        <v>0.11620416328136988</v>
+        <v>0.025655952020207658</v>
       </c>
       <c r="H20">
-        <v>-0.23034969440166825</v>
+        <v>0.028501099842666123</v>
       </c>
       <c r="I20">
-        <v>0.19044777839207697</v>
+        <v>-0.16384175095828604</v>
       </c>
       <c r="J20">
-        <v>0.018586664268577833</v>
+        <v>0.27774521194733903</v>
       </c>
       <c r="K20">
-        <v>-0.1287210192020081</v>
+        <v>-0.3791077294045915</v>
       </c>
       <c r="L20">
-        <v>-0.03885353618827413</v>
+        <v>0.36151427870539515</v>
       </c>
       <c r="M20">
-        <v>0.1430034761732834</v>
+        <v>-0.24624969126310328</v>
       </c>
       <c r="N20">
-        <v>0.04379170173013153</v>
+        <v>0.14076693763613896</v>
       </c>
       <c r="O20">
-        <v>-0.12545037961448866</v>
+        <v>-0.047334552412709216</v>
       </c>
       <c r="P20">
-        <v>-0.04327871643157846</v>
+        <v>-0.038162253449534625</v>
       </c>
       <c r="Q20">
-        <v>0.10897600347664424</v>
+        <v>0.05492956425904011</v>
       </c>
       <c r="R20">
-        <v>-0.10273755629316032</v>
+        <v>-0.0560370641913557</v>
       </c>
       <c r="S20">
-        <v>0.16372155041007827</v>
+        <v>0.12253037005436017</v>
       </c>
       <c r="T20">
-        <v>-0.0417159785162383</v>
+        <v>-0.16507300576989406</v>
       </c>
       <c r="U20">
-        <v>-0.13510711079582366</v>
+        <v>0.12889604648732325</v>
       </c>
       <c r="V20">
-        <v>0.012800333292767413</v>
+        <v>-0.011527675391296788</v>
       </c>
       <c r="W20">
-        <v>0.09487190299773869</v>
+        <v>-0.15274607402832643</v>
       </c>
       <c r="X20">
-        <v>0.0766773067891786</v>
+        <v>0.21220856377647715</v>
       </c>
       <c r="Y20">
-        <v>-0.17289692392186776</v>
+        <v>-0.1389711169031561</v>
       </c>
       <c r="Z20">
-        <v>0.11729618233447658</v>
+        <v>0.0412970140930589</v>
       </c>
       <c r="AA20">
-        <v>-0.1288723591151185</v>
+        <v>0.016080998573087237</v>
       </c>
       <c r="AB20">
-        <v>0.05564466000521677</v>
+        <v>-0.07184897691599015</v>
       </c>
       <c r="AC20">
-        <v>0.1589128042131175</v>
+        <v>0.08090467196073327</v>
       </c>
       <c r="AD20">
-        <v>-0.2038640237732861</v>
+        <v>-0.1051065421896993</v>
       </c>
       <c r="AE20">
-        <v>0.10232334626220771</v>
+        <v>0.18962671518996757</v>
       </c>
       <c r="AF20">
-        <v>-0.19375922704548923</v>
+        <v>-0.26812995668117356</v>
       </c>
       <c r="AG20">
-        <v>0.43717039215070724</v>
+        <v>0.3098701892773316</v>
       </c>
       <c r="AH20">
-        <v>-0.5032329324180029</v>
+        <v>-0.29155102614293005</v>
       </c>
       <c r="AI20">
-        <v>0.3288217709579949</v>
+        <v>0.2068148962071094</v>
       </c>
       <c r="AJ20">
-        <v>-0.11815267711492151</v>
+        <v>-0.09268824267517668</v>
       </c>
       <c r="AK20">
-        <v>0.010810412980663948</v>
+        <v>0.06859150368928812</v>
       </c>
       <c r="AL20">
-        <v>0.010156439068517242</v>
+        <v>-0.0486148093705452</v>
       </c>
       <c r="AM20">
-        <v>-0.0047134219994811755</v>
+        <v>0.013869659264134691</v>
       </c>
       <c r="AN20">
-        <v>0.0007081814795464354</v>
+        <v>0.013981956188492314</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.002842605313402055</v>
+        <v>0.09904046259159284</v>
       </c>
       <c r="B21">
-        <v>0.020693534104455378</v>
+        <v>-0.05855037186694302</v>
       </c>
       <c r="C21">
-        <v>-0.058724597532107035</v>
+        <v>-0.1394633372230378</v>
       </c>
       <c r="D21">
-        <v>0.0717104538696419</v>
+        <v>0.12455888976896104</v>
       </c>
       <c r="E21">
-        <v>-0.002899967642779248</v>
+        <v>0.2016110131023025</v>
       </c>
       <c r="F21">
-        <v>-0.08344715938260003</v>
+        <v>-0.14700548800565266</v>
       </c>
       <c r="G21">
-        <v>0.04811304904315054</v>
+        <v>-0.11104606995807023</v>
       </c>
       <c r="H21">
-        <v>0.06285922427099137</v>
+        <v>0.08434614522495096</v>
       </c>
       <c r="I21">
-        <v>-0.013995055323275957</v>
+        <v>0.16525247962715275</v>
       </c>
       <c r="J21">
-        <v>-0.19927204572486962</v>
+        <v>-0.16941927457806935</v>
       </c>
       <c r="K21">
-        <v>0.18041653591907864</v>
+        <v>-0.02014256961515187</v>
       </c>
       <c r="L21">
-        <v>0.18593052544426283</v>
+        <v>0.2210718017619627</v>
       </c>
       <c r="M21">
-        <v>-0.274690558332531</v>
+        <v>-0.0604766123405224</v>
       </c>
       <c r="N21">
-        <v>-0.14867943315408824</v>
+        <v>-0.20995205231168582</v>
       </c>
       <c r="O21">
-        <v>0.26685205171499804</v>
+        <v>-0.004608697237484081</v>
       </c>
       <c r="P21">
-        <v>0.09626965050283309</v>
+        <v>0.31936936743045047</v>
       </c>
       <c r="Q21">
-        <v>-0.0936629270432616</v>
+        <v>-0.08629912322194833</v>
       </c>
       <c r="R21">
-        <v>-0.13030257548428578</v>
+        <v>-0.26889869249720444</v>
       </c>
       <c r="S21">
-        <v>-0.02238706059578647</v>
+        <v>0.1574292510442464</v>
       </c>
       <c r="T21">
-        <v>0.001222855907705844</v>
+        <v>0.11138840285897775</v>
       </c>
       <c r="U21">
-        <v>0.2404439747266299</v>
+        <v>-0.12169064538915124</v>
       </c>
       <c r="V21">
-        <v>0.05238964466123391</v>
+        <v>-0.16599880942095002</v>
       </c>
       <c r="W21">
-        <v>-0.2981691399836816</v>
+        <v>0.26332384437806733</v>
       </c>
       <c r="X21">
-        <v>-0.07663146783073428</v>
+        <v>0.1271732442132192</v>
       </c>
       <c r="Y21">
-        <v>0.15003257598334618</v>
+        <v>-0.3301338185828302</v>
       </c>
       <c r="Z21">
-        <v>0.1383619568797078</v>
+        <v>-0.011355932427243321</v>
       </c>
       <c r="AA21">
-        <v>0.013075937981469514</v>
+        <v>0.21695634128508615</v>
       </c>
       <c r="AB21">
-        <v>-0.11320641138399784</v>
+        <v>0.0468972294620721</v>
       </c>
       <c r="AC21">
-        <v>-0.17303762186958244</v>
+        <v>-0.19768643319987095</v>
       </c>
       <c r="AD21">
-        <v>0.020013575062812053</v>
+        <v>0.04161124096616624</v>
       </c>
       <c r="AE21">
-        <v>0.41501554731963236</v>
+        <v>0.1495489605392707</v>
       </c>
       <c r="AF21">
-        <v>-0.2606798963186171</v>
+        <v>-0.11674827586878656</v>
       </c>
       <c r="AG21">
-        <v>-0.07802733206356663</v>
+        <v>-0.13238189355040422</v>
       </c>
       <c r="AH21">
-        <v>-0.08751873929264242</v>
+        <v>0.10729556028448388</v>
       </c>
       <c r="AI21">
-        <v>0.3411283383163015</v>
+        <v>0.15804363783197062</v>
       </c>
       <c r="AJ21">
-        <v>-0.21135933577438148</v>
+        <v>-0.1642113550277074</v>
       </c>
       <c r="AK21">
-        <v>-0.03248161353797664</v>
+        <v>-0.14125949244443833</v>
       </c>
       <c r="AL21">
-        <v>0.09164432366112711</v>
+        <v>0.09168182863197438</v>
       </c>
       <c r="AM21">
-        <v>-0.04031936698064576</v>
+        <v>0.10458892543315221</v>
       </c>
       <c r="AN21">
-        <v>0.0061711148549340065</v>
+        <v>-0.12147163966985614</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.004203515652403719</v>
+        <v>0.04221717713535043</v>
       </c>
       <c r="B22">
-        <v>0.02765626159939442</v>
+        <v>-0.08428845665837544</v>
       </c>
       <c r="C22">
-        <v>-0.07889208027133598</v>
+        <v>0.014003121333294734</v>
       </c>
       <c r="D22">
-        <v>0.11722961161281403</v>
+        <v>0.13817913811400842</v>
       </c>
       <c r="E22">
-        <v>-0.05724183238880876</v>
+        <v>-0.1474019728277853</v>
       </c>
       <c r="F22">
-        <v>-0.11230885294306939</v>
+        <v>-0.05423418802037636</v>
       </c>
       <c r="G22">
-        <v>0.19611572822135587</v>
+        <v>0.0950398169250272</v>
       </c>
       <c r="H22">
-        <v>0.008740069272968463</v>
+        <v>0.12360103990254856</v>
       </c>
       <c r="I22">
-        <v>-0.2505143525566297</v>
+        <v>-0.1694337953183931</v>
       </c>
       <c r="J22">
-        <v>0.07651453823536775</v>
+        <v>-0.14728533351235928</v>
       </c>
       <c r="K22">
-        <v>0.28095863796235254</v>
+        <v>0.20966937386965645</v>
       </c>
       <c r="L22">
-        <v>-0.22464236160254308</v>
+        <v>0.12106844650116964</v>
       </c>
       <c r="M22">
-        <v>-0.09862424460024574</v>
+        <v>-0.31515055996812985</v>
       </c>
       <c r="N22">
-        <v>0.20948240590715045</v>
+        <v>0.04623466439679941</v>
       </c>
       <c r="O22">
-        <v>-0.11508358721613467</v>
+        <v>0.21094420974590528</v>
       </c>
       <c r="P22">
-        <v>-0.10708474147132835</v>
+        <v>-0.07388550465827869</v>
       </c>
       <c r="Q22">
-        <v>0.3160086051049249</v>
+        <v>-0.26613463476508775</v>
       </c>
       <c r="R22">
-        <v>-0.11930435485684308</v>
+        <v>0.21007285525737085</v>
       </c>
       <c r="S22">
-        <v>-0.25151684815842845</v>
+        <v>0.1509339321938156</v>
       </c>
       <c r="T22">
-        <v>0.1849340961639912</v>
+        <v>-0.17048588438916962</v>
       </c>
       <c r="U22">
-        <v>0.08299699419358612</v>
+        <v>-0.15388224610132914</v>
       </c>
       <c r="V22">
-        <v>-0.09196728983154631</v>
+        <v>0.12583199024446606</v>
       </c>
       <c r="W22">
-        <v>0.006834107375370908</v>
+        <v>0.22450744754374086</v>
       </c>
       <c r="X22">
-        <v>0.06198464748396283</v>
+        <v>-0.26853200857883086</v>
       </c>
       <c r="Y22">
-        <v>-0.14851665677904632</v>
+        <v>-0.08673104788905667</v>
       </c>
       <c r="Z22">
-        <v>0.019044753530249085</v>
+        <v>0.2481366339610703</v>
       </c>
       <c r="AA22">
-        <v>0.28313734402003593</v>
+        <v>0.009765481174617027</v>
       </c>
       <c r="AB22">
-        <v>-0.30498541162550885</v>
+        <v>-0.28682922720810766</v>
       </c>
       <c r="AC22">
-        <v>-0.022684576130187952</v>
+        <v>0.08902707594633845</v>
       </c>
       <c r="AD22">
-        <v>0.24237094908083354</v>
+        <v>0.21172154706985616</v>
       </c>
       <c r="AE22">
-        <v>-0.06352653032656569</v>
+        <v>-0.110831260893867</v>
       </c>
       <c r="AF22">
-        <v>-0.2320258331924661</v>
+        <v>-0.18864203064520124</v>
       </c>
       <c r="AG22">
-        <v>0.2236014550679984</v>
+        <v>0.10773054072103021</v>
       </c>
       <c r="AH22">
-        <v>0.008917858369753777</v>
+        <v>0.1070673245939183</v>
       </c>
       <c r="AI22">
-        <v>-0.07522426497323745</v>
+        <v>-0.03871480740486353</v>
       </c>
       <c r="AJ22">
-        <v>-0.07133946655704476</v>
+        <v>-0.16607753330633143</v>
       </c>
       <c r="AK22">
-        <v>0.16785727625336586</v>
+        <v>0.13338790308830412</v>
       </c>
       <c r="AL22">
-        <v>-0.1195693539573523</v>
+        <v>0.03525181633815918</v>
       </c>
       <c r="AM22">
-        <v>0.0404324311912525</v>
+        <v>-0.09262284465990232</v>
       </c>
       <c r="AN22">
-        <v>-0.005579940578364112</v>
+        <v>0.041650352952427035</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.010780462497262208</v>
+        <v>-0.07673350105171478</v>
       </c>
       <c r="B23">
-        <v>-0.06320221404179954</v>
+        <v>0.1680342949160017</v>
       </c>
       <c r="C23">
-        <v>0.14847490605117797</v>
+        <v>-0.1826397545014709</v>
       </c>
       <c r="D23">
-        <v>-0.16428374346507377</v>
+        <v>0.1053229587682008</v>
       </c>
       <c r="E23">
-        <v>0.05766048506711753</v>
+        <v>-0.013086097270501786</v>
       </c>
       <c r="F23">
-        <v>0.04316619483721021</v>
+        <v>-0.14850092482419103</v>
       </c>
       <c r="G23">
-        <v>-0.01160908648186336</v>
+        <v>0.23353771698539902</v>
       </c>
       <c r="H23">
-        <v>-0.07246768873976817</v>
+        <v>-0.20179799738291712</v>
       </c>
       <c r="I23">
-        <v>0.038184283022921255</v>
+        <v>0.11877010658252568</v>
       </c>
       <c r="J23">
-        <v>0.045089783890393816</v>
+        <v>-0.009981730430471146</v>
       </c>
       <c r="K23">
-        <v>0.08644630269262124</v>
+        <v>-0.1735633942688461</v>
       </c>
       <c r="L23">
-        <v>-0.20813859813768537</v>
+        <v>0.22345985699142717</v>
       </c>
       <c r="M23">
-        <v>-0.10461557971108251</v>
+        <v>-0.10427203187642752</v>
       </c>
       <c r="N23">
-        <v>0.2869561225037989</v>
+        <v>-0.047283287957328446</v>
       </c>
       <c r="O23">
-        <v>0.10443501877613431</v>
+        <v>0.19194512622933482</v>
       </c>
       <c r="P23">
-        <v>-0.12962385683467564</v>
+        <v>-0.2670242664848725</v>
       </c>
       <c r="Q23">
-        <v>-0.276988798853775</v>
+        <v>0.22108218064881255</v>
       </c>
       <c r="R23">
-        <v>0.04484947939617234</v>
+        <v>-0.15098013202253613</v>
       </c>
       <c r="S23">
-        <v>0.2399578759817209</v>
+        <v>0.07724127488214784</v>
       </c>
       <c r="T23">
-        <v>0.08643278745756837</v>
+        <v>0.08292421809652678</v>
       </c>
       <c r="U23">
-        <v>0.023879937659357805</v>
+        <v>-0.19350494061294654</v>
       </c>
       <c r="V23">
-        <v>-0.3218045107863793</v>
+        <v>0.2001954782763906</v>
       </c>
       <c r="W23">
-        <v>-0.15904046958265425</v>
+        <v>-0.20097982926625674</v>
       </c>
       <c r="X23">
-        <v>0.3018060218164311</v>
+        <v>0.14349844793574767</v>
       </c>
       <c r="Y23">
-        <v>0.2258962458961156</v>
+        <v>-0.009056294121789345</v>
       </c>
       <c r="Z23">
-        <v>-0.037076020533329375</v>
+        <v>-0.12458956100082398</v>
       </c>
       <c r="AA23">
-        <v>-0.3881390964750243</v>
+        <v>0.2273584726399463</v>
       </c>
       <c r="AB23">
-        <v>0.03899118030781219</v>
+        <v>-0.25352497605304963</v>
       </c>
       <c r="AC23">
-        <v>0.11712564542222187</v>
+        <v>0.09832955892497108</v>
       </c>
       <c r="AD23">
-        <v>0.24210398478612707</v>
+        <v>0.09261069081032271</v>
       </c>
       <c r="AE23">
-        <v>-0.13394230044510916</v>
+        <v>-0.19258308400947807</v>
       </c>
       <c r="AF23">
-        <v>-0.2066364327212339</v>
+        <v>0.26283102028997624</v>
       </c>
       <c r="AG23">
-        <v>0.0651792774096773</v>
+        <v>-0.25013160173378485</v>
       </c>
       <c r="AH23">
-        <v>0.1241739199049757</v>
+        <v>0.12974130642912748</v>
       </c>
       <c r="AI23">
-        <v>0.036291857787231846</v>
+        <v>0.009137267082283676</v>
       </c>
       <c r="AJ23">
-        <v>-0.17294653442262573</v>
+        <v>-0.0723133132088247</v>
       </c>
       <c r="AK23">
-        <v>0.08829218482659441</v>
+        <v>0.1270951505818854</v>
       </c>
       <c r="AL23">
-        <v>0.009120279450099031</v>
+        <v>-0.0881310416071182</v>
       </c>
       <c r="AM23">
-        <v>-0.019067764876961445</v>
+        <v>0.014887196840299185</v>
       </c>
       <c r="AN23">
-        <v>0.004334423469262996</v>
+        <v>0.02370469490763136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.0019318239496731143</v>
+        <v>0.07833205576436672</v>
       </c>
       <c r="B24">
-        <v>0.012794275322797557</v>
+        <v>-0.09745716341901824</v>
       </c>
       <c r="C24">
-        <v>-0.042706647505884515</v>
+        <v>-0.01881313884522792</v>
       </c>
       <c r="D24">
-        <v>0.10340784460704469</v>
+        <v>0.15698836073728412</v>
       </c>
       <c r="E24">
-        <v>-0.18265440553843446</v>
+        <v>-0.16365808045526095</v>
       </c>
       <c r="F24">
-        <v>0.1743223561286987</v>
+        <v>0.17830472814896786</v>
       </c>
       <c r="G24">
-        <v>0.01985191383245413</v>
+        <v>-0.056708024507380994</v>
       </c>
       <c r="H24">
-        <v>-0.19812416396692645</v>
+        <v>-0.11488554038416243</v>
       </c>
       <c r="I24">
-        <v>0.07519618961725058</v>
+        <v>0.1810455924097723</v>
       </c>
       <c r="J24">
-        <v>0.1339198802195204</v>
+        <v>-0.17223864967791824</v>
       </c>
       <c r="K24">
-        <v>-0.08740909301360869</v>
+        <v>0.22254662833036576</v>
       </c>
       <c r="L24">
-        <v>-0.037763661543426884</v>
+        <v>-0.04713314979383232</v>
       </c>
       <c r="M24">
-        <v>0.09131755142892749</v>
+        <v>-0.19952821170715068</v>
       </c>
       <c r="N24">
-        <v>-0.1376069743139502</v>
+        <v>0.2562413837370261</v>
       </c>
       <c r="O24">
-        <v>-0.06336966552839408</v>
+        <v>-0.17822017328170986</v>
       </c>
       <c r="P24">
-        <v>0.3043242929212444</v>
+        <v>0.03722576048832043</v>
       </c>
       <c r="Q24">
-        <v>0.05556593437867714</v>
+        <v>0.15233417461163964</v>
       </c>
       <c r="R24">
-        <v>-0.4139787952970004</v>
+        <v>-0.19441870000456762</v>
       </c>
       <c r="S24">
-        <v>-0.019356724885356624</v>
+        <v>0.17787741061092577</v>
       </c>
       <c r="T24">
-        <v>0.33887683941574603</v>
+        <v>-0.234871601705866</v>
       </c>
       <c r="U24">
-        <v>-0.0305795721746145</v>
+        <v>0.13773727279974282</v>
       </c>
       <c r="V24">
-        <v>-0.00613137730421991</v>
+        <v>0.06837237648416025</v>
       </c>
       <c r="W24">
-        <v>-0.11597843029526327</v>
+        <v>-0.12624381499607515</v>
       </c>
       <c r="X24">
-        <v>-0.21125851105429463</v>
+        <v>0.16869737742272878</v>
       </c>
       <c r="Y24">
-        <v>0.26742811491752094</v>
+        <v>-0.22185604144520923</v>
       </c>
       <c r="Z24">
-        <v>0.1673029606215276</v>
+        <v>0.18503003012509775</v>
       </c>
       <c r="AA24">
-        <v>-0.14173159201082774</v>
+        <v>-0.0973705186390839</v>
       </c>
       <c r="AB24">
-        <v>-0.23000611368191862</v>
+        <v>-0.028498302901542177</v>
       </c>
       <c r="AC24">
-        <v>0.1279912249615432</v>
+        <v>0.2585224580853588</v>
       </c>
       <c r="AD24">
-        <v>0.20722559264476229</v>
+        <v>-0.2862097954511554</v>
       </c>
       <c r="AE24">
-        <v>-0.26980772838039796</v>
+        <v>0.11471446404388472</v>
       </c>
       <c r="AF24">
-        <v>0.20040051048255444</v>
+        <v>-0.003874948289839337</v>
       </c>
       <c r="AG24">
-        <v>-0.11905805807372578</v>
+        <v>-0.09444432098960437</v>
       </c>
       <c r="AH24">
-        <v>-0.027774437949358233</v>
+        <v>0.22582755215178854</v>
       </c>
       <c r="AI24">
-        <v>0.10292965194528778</v>
+        <v>-0.22983351842621214</v>
       </c>
       <c r="AJ24">
-        <v>-0.023963577148220117</v>
+        <v>0.10759468236609294</v>
       </c>
       <c r="AK24">
-        <v>-0.06180023894113561</v>
+        <v>-0.04090885775672503</v>
       </c>
       <c r="AL24">
-        <v>0.058643146164904875</v>
+        <v>-0.07659839341510476</v>
       </c>
       <c r="AM24">
-        <v>-0.021545754239219318</v>
+        <v>0.13939492677873794</v>
       </c>
       <c r="AN24">
-        <v>0.003038692628392554</v>
+        <v>-0.09353575991398295</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.016887461398231267</v>
+        <v>-0.1729571975476659</v>
       </c>
       <c r="B25">
-        <v>-0.10497752379117029</v>
+        <v>0.053080288184466376</v>
       </c>
       <c r="C25">
-        <v>0.25241106821676274</v>
+        <v>0.13878592026644754</v>
       </c>
       <c r="D25">
-        <v>-0.25303206783715165</v>
+        <v>0.033874769422129185</v>
       </c>
       <c r="E25">
-        <v>0.007048815819947331</v>
+        <v>-0.35747170471149015</v>
       </c>
       <c r="F25">
-        <v>0.13993392128940008</v>
+        <v>0.03810006832391472</v>
       </c>
       <c r="G25">
-        <v>0.025683123610265184</v>
+        <v>-0.07041152329777864</v>
       </c>
       <c r="H25">
-        <v>-0.10577378139872373</v>
+        <v>0.205273308234286</v>
       </c>
       <c r="I25">
-        <v>-0.04786706888915142</v>
+        <v>0.08102767558848835</v>
       </c>
       <c r="J25">
-        <v>0.0030346749696901795</v>
+        <v>-0.20726841085974432</v>
       </c>
       <c r="K25">
-        <v>0.21487533310717508</v>
+        <v>-0.28226362170248076</v>
       </c>
       <c r="L25">
-        <v>-0.17211860587175484</v>
+        <v>0.13929334971325383</v>
       </c>
       <c r="M25">
-        <v>-0.05112166857861336</v>
+        <v>0.10612454491011843</v>
       </c>
       <c r="N25">
-        <v>0.19187535459590174</v>
+        <v>0.0929186661921816</v>
       </c>
       <c r="O25">
-        <v>-0.24638454066186058</v>
+        <v>0.02425318515646814</v>
       </c>
       <c r="P25">
-        <v>0.18584980957892672</v>
+        <v>-0.13165302809161306</v>
       </c>
       <c r="Q25">
-        <v>-0.07085730759153949</v>
+        <v>-0.1505084075746408</v>
       </c>
       <c r="R25">
-        <v>0.009494457829536052</v>
+        <v>0.009352324308021152</v>
       </c>
       <c r="S25">
-        <v>0.13307041956441615</v>
+        <v>0.2520965237191206</v>
       </c>
       <c r="T25">
-        <v>-0.271851212180642</v>
+        <v>0.07490505167782176</v>
       </c>
       <c r="U25">
-        <v>0.13456393258138535</v>
+        <v>0.013656794304134365</v>
       </c>
       <c r="V25">
-        <v>-0.018200309895444685</v>
+        <v>-0.3080513919009372</v>
       </c>
       <c r="W25">
-        <v>0.18461591174592784</v>
+        <v>0.0017223882377047552</v>
       </c>
       <c r="X25">
-        <v>-0.10661571891100645</v>
+        <v>0.06430080916306188</v>
       </c>
       <c r="Y25">
-        <v>-0.3421986245939278</v>
+        <v>0.12796180864812431</v>
       </c>
       <c r="Z25">
-        <v>0.3862269489084789</v>
+        <v>0.04839957838875547</v>
       </c>
       <c r="AA25">
-        <v>0.02946063928905381</v>
+        <v>-0.11001232825807726</v>
       </c>
       <c r="AB25">
-        <v>-0.08688389804401182</v>
+        <v>-0.09268193005320764</v>
       </c>
       <c r="AC25">
-        <v>-0.1819850150783221</v>
+        <v>-0.13742530531365482</v>
       </c>
       <c r="AD25">
-        <v>0.13530132143952392</v>
+        <v>0.06668071869188115</v>
       </c>
       <c r="AE25">
-        <v>0.023615567248710168</v>
+        <v>0.29450494985122233</v>
       </c>
       <c r="AF25">
-        <v>0.12605416124307045</v>
+        <v>0.006823247146407761</v>
       </c>
       <c r="AG25">
-        <v>-0.223205285413787</v>
+        <v>-0.29324862485972925</v>
       </c>
       <c r="AH25">
-        <v>-0.0072646110355035105</v>
+        <v>0.09265998923230008</v>
       </c>
       <c r="AI25">
-        <v>0.16616306170623876</v>
+        <v>-0.016132632551465808</v>
       </c>
       <c r="AJ25">
-        <v>-0.025712389819870403</v>
+        <v>0.23271578696392498</v>
       </c>
       <c r="AK25">
-        <v>-0.13409543246482564</v>
+        <v>0.0356486903948048</v>
       </c>
       <c r="AL25">
-        <v>0.12342827968858675</v>
+        <v>-0.0215023047827724</v>
       </c>
       <c r="AM25">
-        <v>-0.046156937743736325</v>
+        <v>-0.18876912698739534</v>
       </c>
       <c r="AN25">
-        <v>0.006740710735205735</v>
+        <v>0.2389551575669549</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.0007442630601619393</v>
+        <v>0.03860703063560745</v>
       </c>
       <c r="B26">
-        <v>-0.006644815285439079</v>
+        <v>-0.1761899197869105</v>
       </c>
       <c r="C26">
-        <v>0.026312615612807087</v>
+        <v>0.2772624187531945</v>
       </c>
       <c r="D26">
-        <v>-0.05625369145889264</v>
+        <v>-0.2025183705256167</v>
       </c>
       <c r="E26">
-        <v>0.055947027291079234</v>
+        <v>0.07472417238768408</v>
       </c>
       <c r="F26">
-        <v>0.014434849374802486</v>
+        <v>-0.04109161109381357</v>
       </c>
       <c r="G26">
-        <v>-0.07961197246196572</v>
+        <v>0.019663674834259914</v>
       </c>
       <c r="H26">
-        <v>-0.006225107414126283</v>
+        <v>-0.10701368618655091</v>
       </c>
       <c r="I26">
-        <v>0.15455370983343675</v>
+        <v>0.2972119590978677</v>
       </c>
       <c r="J26">
-        <v>-0.07372335767214033</v>
+        <v>-0.2950747054231174</v>
       </c>
       <c r="K26">
-        <v>-0.13514349283394445</v>
+        <v>0.07384156323426543</v>
       </c>
       <c r="L26">
-        <v>0.04652470681578385</v>
+        <v>0.028095445822626925</v>
       </c>
       <c r="M26">
-        <v>0.14324627841439377</v>
+        <v>-0.03127377089656253</v>
       </c>
       <c r="N26">
-        <v>0.0958592534249232</v>
+        <v>0.016356272208989796</v>
       </c>
       <c r="O26">
-        <v>-0.34586065506853</v>
+        <v>0.0632685766208242</v>
       </c>
       <c r="P26">
-        <v>-0.004105949232507317</v>
+        <v>-0.0720971555529204</v>
       </c>
       <c r="Q26">
-        <v>0.2736504718203707</v>
+        <v>-0.03494151794751872</v>
       </c>
       <c r="R26">
-        <v>0.13491828630475133</v>
+        <v>0.08215149820953739</v>
       </c>
       <c r="S26">
-        <v>-0.3033837935474598</v>
+        <v>-0.15751952774018518</v>
       </c>
       <c r="T26">
-        <v>-0.25373146611284747</v>
+        <v>0.30015426085048746</v>
       </c>
       <c r="U26">
-        <v>0.44828262316933143</v>
+        <v>-0.27694968159090894</v>
       </c>
       <c r="V26">
-        <v>0.10705222522894967</v>
+        <v>0.16198580620931827</v>
       </c>
       <c r="W26">
-        <v>-0.3386921031171918</v>
+        <v>-0.11302329536429027</v>
       </c>
       <c r="X26">
-        <v>-0.053887645843903105</v>
+        <v>0.00810421435449209</v>
       </c>
       <c r="Y26">
-        <v>0.17388722476289126</v>
+        <v>0.07731638940583986</v>
       </c>
       <c r="Z26">
-        <v>0.16978241986417822</v>
+        <v>-0.014300448250858359</v>
       </c>
       <c r="AA26">
-        <v>-0.27443095484085755</v>
+        <v>-0.040443491945152565</v>
       </c>
       <c r="AB26">
-        <v>0.01637497758685604</v>
+        <v>0.03404019886197507</v>
       </c>
       <c r="AC26">
-        <v>0.09397515156929825</v>
+        <v>-0.02531077625243312</v>
       </c>
       <c r="AD26">
-        <v>0.015021148394495695</v>
+        <v>-0.12934611235721247</v>
       </c>
       <c r="AE26">
-        <v>-0.000359513079699125</v>
+        <v>0.2952497633852124</v>
       </c>
       <c r="AF26">
-        <v>-0.13320107632121794</v>
+        <v>-0.22476641689003274</v>
       </c>
       <c r="AG26">
-        <v>0.1100358210844388</v>
+        <v>0.0796948239542133</v>
       </c>
       <c r="AH26">
-        <v>0.05993345529402373</v>
+        <v>-0.04164434250730462</v>
       </c>
       <c r="AI26">
-        <v>-0.14647023939995904</v>
+        <v>0.04089454671343509</v>
       </c>
       <c r="AJ26">
-        <v>0.09336584001984385</v>
+        <v>-0.1250505827310499</v>
       </c>
       <c r="AK26">
-        <v>-0.019046540329347807</v>
+        <v>0.3052874527951899</v>
       </c>
       <c r="AL26">
-        <v>-0.006925359019510139</v>
+        <v>-0.3128464739975002</v>
       </c>
       <c r="AM26">
-        <v>0.004530200786584625</v>
+        <v>0.1382893254214625</v>
       </c>
       <c r="AN26">
-        <v>-0.000735577590000468</v>
+        <v>-0.009327963521145866</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.0022729072997497387</v>
+        <v>-0.16182857645946316</v>
       </c>
       <c r="B27">
-        <v>-0.004430487791635061</v>
+        <v>0.2417498284940452</v>
       </c>
       <c r="C27">
-        <v>-0.02610135786850655</v>
+        <v>-0.030144484269672346</v>
       </c>
       <c r="D27">
-        <v>0.11229761942868707</v>
+        <v>-0.19553027475016235</v>
       </c>
       <c r="E27">
-        <v>-0.1643113748582169</v>
+        <v>0.108907797737224</v>
       </c>
       <c r="F27">
-        <v>0.09292443212949038</v>
+        <v>-0.09040919444917668</v>
       </c>
       <c r="G27">
-        <v>-0.0027472289410875764</v>
+        <v>-0.01620926963231354</v>
       </c>
       <c r="H27">
-        <v>-0.05789689471035968</v>
+        <v>0.27722951760697623</v>
       </c>
       <c r="I27">
-        <v>0.22466099661884165</v>
+        <v>-0.18842262170172305</v>
       </c>
       <c r="J27">
-        <v>-0.3342496698129277</v>
+        <v>-0.23884824399258991</v>
       </c>
       <c r="K27">
-        <v>0.10048774258649924</v>
+        <v>0.26034675972350757</v>
       </c>
       <c r="L27">
-        <v>0.1962788174664665</v>
+        <v>-0.08009616197035763</v>
       </c>
       <c r="M27">
-        <v>-0.24113060956893861</v>
+        <v>0.026058771253686497</v>
       </c>
       <c r="N27">
-        <v>0.23443390851740603</v>
+        <v>0.10975208667330522</v>
       </c>
       <c r="O27">
-        <v>-0.20805116823415523</v>
+        <v>-0.09279996101335523</v>
       </c>
       <c r="P27">
-        <v>0.009724253200586218</v>
+        <v>-0.11732865879039577</v>
       </c>
       <c r="Q27">
-        <v>0.1790759305138969</v>
+        <v>0.10661533609832975</v>
       </c>
       <c r="R27">
-        <v>-0.2545902087597695</v>
+        <v>-0.06530143504683343</v>
       </c>
       <c r="S27">
-        <v>0.2599579357872144</v>
+        <v>0.21301329123785978</v>
       </c>
       <c r="T27">
-        <v>-0.10688246687140193</v>
+        <v>-0.06698105557505904</v>
       </c>
       <c r="U27">
-        <v>-0.053794488191000904</v>
+        <v>-0.14966749406690058</v>
       </c>
       <c r="V27">
-        <v>0.0964545658105701</v>
+        <v>0.0729742937872437</v>
       </c>
       <c r="W27">
-        <v>-0.2637568121292344</v>
+        <v>-0.12295882076748363</v>
       </c>
       <c r="X27">
-        <v>0.3887359249956414</v>
+        <v>0.20428293474491643</v>
       </c>
       <c r="Y27">
-        <v>-0.09157870952994936</v>
+        <v>0.008493303797040004</v>
       </c>
       <c r="Z27">
-        <v>-0.24005570574620783</v>
+        <v>-0.13028315851847072</v>
       </c>
       <c r="AA27">
-        <v>0.17669713962092906</v>
+        <v>0.03775772629070694</v>
       </c>
       <c r="AB27">
-        <v>-0.04110806018541745</v>
+        <v>-0.04218679491159138</v>
       </c>
       <c r="AC27">
-        <v>0.07368675723253408</v>
+        <v>-0.12390061144369646</v>
       </c>
       <c r="AD27">
-        <v>-0.05167707891148937</v>
+        <v>0.3248250042170978</v>
       </c>
       <c r="AE27">
-        <v>-0.08403501978684677</v>
+        <v>-0.06798820877990712</v>
       </c>
       <c r="AF27">
-        <v>0.15872725715352987</v>
+        <v>-0.19273243126252482</v>
       </c>
       <c r="AG27">
-        <v>-0.12183021785461072</v>
+        <v>0.1390064953505636</v>
       </c>
       <c r="AH27">
-        <v>0.05740486940420858</v>
+        <v>-0.06299371706236809</v>
       </c>
       <c r="AI27">
-        <v>-0.039077544882645546</v>
+        <v>-0.01209661183170394</v>
       </c>
       <c r="AJ27">
-        <v>0.06436347943363029</v>
+        <v>0.2810182500647037</v>
       </c>
       <c r="AK27">
-        <v>-0.07585983191312201</v>
+        <v>-0.18785229016837424</v>
       </c>
       <c r="AL27">
-        <v>0.04973546468751062</v>
+        <v>-0.16595893045538088</v>
       </c>
       <c r="AM27">
-        <v>-0.017257844039695595</v>
+        <v>0.2701038514256515</v>
       </c>
       <c r="AN27">
-        <v>0.0025207619276139317</v>
+        <v>-0.07796438485852637</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-0.004944050208996031</v>
+        <v>-0.01074602128207664</v>
       </c>
       <c r="B28">
-        <v>0.024205004911097217</v>
+        <v>0.09539271835164098</v>
       </c>
       <c r="C28">
-        <v>-0.033619517856144344</v>
+        <v>-0.07819979329760665</v>
       </c>
       <c r="D28">
-        <v>-0.028693537548006416</v>
+        <v>-0.1281767082824593</v>
       </c>
       <c r="E28">
-        <v>0.13425816232311735</v>
+        <v>0.12382489167453854</v>
       </c>
       <c r="F28">
-        <v>-0.12723189725260103</v>
+        <v>0.26341479359394243</v>
       </c>
       <c r="G28">
-        <v>-0.04006376709665256</v>
+        <v>-0.34627575810533046</v>
       </c>
       <c r="H28">
-        <v>0.18235896257132095</v>
+        <v>0.010836017509150267</v>
       </c>
       <c r="I28">
-        <v>-0.1085070777107499</v>
+        <v>0.11190644013233089</v>
       </c>
       <c r="J28">
-        <v>-0.09871410422683885</v>
+        <v>0.017716952563972488</v>
       </c>
       <c r="K28">
-        <v>0.1334757216984532</v>
+        <v>-0.10261714753247264</v>
       </c>
       <c r="L28">
-        <v>-0.0006872704420556144</v>
+        <v>0.25644301585168255</v>
       </c>
       <c r="M28">
-        <v>0.08271884546340524</v>
+        <v>-0.2535203177342357</v>
       </c>
       <c r="N28">
-        <v>-0.20519663176706113</v>
+        <v>-0.03633826092366477</v>
       </c>
       <c r="O28">
-        <v>-0.1495952493618722</v>
+        <v>0.12076821580629479</v>
       </c>
       <c r="P28">
-        <v>0.46123938850796337</v>
+        <v>-0.08247246537686038</v>
       </c>
       <c r="Q28">
-        <v>-0.08205082497195654</v>
+        <v>0.23360487954191936</v>
       </c>
       <c r="R28">
-        <v>-0.22833539975170714</v>
+        <v>-0.19130477033961496</v>
       </c>
       <c r="S28">
-        <v>-0.07377215045399375</v>
+        <v>-0.030619711484919335</v>
       </c>
       <c r="T28">
-        <v>0.15540652431018775</v>
+        <v>-0.04328284504788025</v>
       </c>
       <c r="U28">
-        <v>0.28466141079411794</v>
+        <v>0.07721162031411764</v>
       </c>
       <c r="V28">
-        <v>-0.44447599403688387</v>
+        <v>0.05833096700676544</v>
       </c>
       <c r="W28">
-        <v>0.057212220328065014</v>
+        <v>0.0843167250783207</v>
       </c>
       <c r="X28">
-        <v>0.27365728921573307</v>
+        <v>-0.24773070173984665</v>
       </c>
       <c r="Y28">
-        <v>-0.14640196251051152</v>
+        <v>0.12088345719649035</v>
       </c>
       <c r="Z28">
-        <v>-0.07236022378927903</v>
+        <v>-0.053626447625525805</v>
       </c>
       <c r="AA28">
-        <v>-0.07009984360993196</v>
+        <v>0.00015531352452365535</v>
       </c>
       <c r="AB28">
-        <v>0.23539428667875523</v>
+        <v>0.2273744090202629</v>
       </c>
       <c r="AC28">
-        <v>-0.015057067280344866</v>
+        <v>-0.2669817629468555</v>
       </c>
       <c r="AD28">
-        <v>-0.16405335634204107</v>
+        <v>0.12991597350182657</v>
       </c>
       <c r="AE28">
-        <v>0.0039649924427078796</v>
+        <v>-0.06993543448985477</v>
       </c>
       <c r="AF28">
-        <v>0.05638814701063659</v>
+        <v>-0.09079227488068675</v>
       </c>
       <c r="AG28">
-        <v>0.10605021746637196</v>
+        <v>0.14477934887263783</v>
       </c>
       <c r="AH28">
-        <v>-0.10302555916504523</v>
+        <v>0.19118410554410295</v>
       </c>
       <c r="AI28">
-        <v>-0.0718155533007741</v>
+        <v>-0.38480412945485293</v>
       </c>
       <c r="AJ28">
-        <v>0.11674470289805913</v>
+        <v>0.05570702069039105</v>
       </c>
       <c r="AK28">
-        <v>-0.02692327773995564</v>
+        <v>0.15980336109747778</v>
       </c>
       <c r="AL28">
-        <v>-0.026682906984310993</v>
+        <v>-0.01877094421581033</v>
       </c>
       <c r="AM28">
-        <v>0.01786796539688915</v>
+        <v>-0.09649676369147132</v>
       </c>
       <c r="AN28">
-        <v>-0.0033215959145597696</v>
+        <v>0.03452561509012663</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.0010752240106767356</v>
+        <v>0.1337703466159074</v>
       </c>
       <c r="B29">
-        <v>-0.002120115828204559</v>
+        <v>-0.18277311059276172</v>
       </c>
       <c r="C29">
-        <v>-0.004188044970613579</v>
+        <v>-0.1248887902785002</v>
       </c>
       <c r="D29">
-        <v>-0.0008504270199152682</v>
+        <v>0.21784593351980605</v>
       </c>
       <c r="E29">
-        <v>0.07336564118656937</v>
+        <v>0.22655145185186296</v>
       </c>
       <c r="F29">
-        <v>-0.18219167990195825</v>
+        <v>-0.3116431405117109</v>
       </c>
       <c r="G29">
-        <v>0.18671039673662912</v>
+        <v>-0.1930693233082361</v>
       </c>
       <c r="H29">
-        <v>-0.09264830001331946</v>
+        <v>0.1725122382066317</v>
       </c>
       <c r="I29">
-        <v>0.03253135971303873</v>
+        <v>0.1005270847757333</v>
       </c>
       <c r="J29">
-        <v>0.050818544673223436</v>
+        <v>-0.05631989557640184</v>
       </c>
       <c r="K29">
-        <v>-0.21748329442510145</v>
+        <v>0.015072223867259524</v>
       </c>
       <c r="L29">
-        <v>0.2917720316762356</v>
+        <v>-0.09368456364090788</v>
       </c>
       <c r="M29">
-        <v>-0.22082567437264003</v>
+        <v>-0.2273224984367286</v>
       </c>
       <c r="N29">
-        <v>0.11086733889230149</v>
+        <v>0.1562048757920485</v>
       </c>
       <c r="O29">
-        <v>0.05384883783973552</v>
+        <v>0.05976209778654538</v>
       </c>
       <c r="P29">
-        <v>-0.1934698560529276</v>
+        <v>0.12816568072492734</v>
       </c>
       <c r="Q29">
-        <v>0.148910661671707</v>
+        <v>-0.1912410842710137</v>
       </c>
       <c r="R29">
-        <v>-0.004489305382256071</v>
+        <v>-0.16682908977599953</v>
       </c>
       <c r="S29">
-        <v>-0.10522708676195253</v>
+        <v>-0.010420936265307905</v>
       </c>
       <c r="T29">
-        <v>0.11149506680103449</v>
+        <v>0.13412592672548115</v>
       </c>
       <c r="U29">
-        <v>0.03898473465836149</v>
+        <v>0.1492188586963531</v>
       </c>
       <c r="V29">
-        <v>-0.16210112304239427</v>
+        <v>-0.05110946258910377</v>
       </c>
       <c r="W29">
-        <v>0.08809582238104835</v>
+        <v>-0.20393719782292424</v>
       </c>
       <c r="X29">
-        <v>0.003971599585673383</v>
+        <v>-0.09729323066515257</v>
       </c>
       <c r="Y29">
-        <v>0.00417109039034348</v>
+        <v>0.1365357728648061</v>
       </c>
       <c r="Z29">
-        <v>-0.0039475554398263535</v>
+        <v>0.03769032073325091</v>
       </c>
       <c r="AA29">
-        <v>-0.07335054555192283</v>
+        <v>0.10922445341000334</v>
       </c>
       <c r="AB29">
-        <v>0.2470744945257777</v>
+        <v>-0.19853281510450507</v>
       </c>
       <c r="AC29">
-        <v>-0.4002356250418011</v>
+        <v>-0.03553765338563356</v>
       </c>
       <c r="AD29">
-        <v>0.34128577081094275</v>
+        <v>-0.0549837972694723</v>
       </c>
       <c r="AE29">
-        <v>-0.17394663963460602</v>
+        <v>-0.06797301065944407</v>
       </c>
       <c r="AF29">
-        <v>0.06975937370288936</v>
+        <v>0.21978391432008362</v>
       </c>
       <c r="AG29">
-        <v>0.062444587853946035</v>
+        <v>0.08642446454730317</v>
       </c>
       <c r="AH29">
-        <v>-0.18315639616247611</v>
+        <v>-0.34967241898437545</v>
       </c>
       <c r="AI29">
-        <v>0.05996808424128432</v>
+        <v>-0.12140760884751158</v>
       </c>
       <c r="AJ29">
-        <v>0.21128228588617162</v>
+        <v>0.27023476360522314</v>
       </c>
       <c r="AK29">
-        <v>-0.30756767547803815</v>
+        <v>0.0799091706172792</v>
       </c>
       <c r="AL29">
-        <v>0.19217936275725608</v>
+        <v>-0.14805986938256954</v>
       </c>
       <c r="AM29">
-        <v>-0.06084462713097166</v>
+        <v>-0.09145164111816159</v>
       </c>
       <c r="AN29">
-        <v>0.008051873721990949</v>
+        <v>0.10282213733679049</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.001896446095625066</v>
+        <v>-0.004035726858389914</v>
       </c>
       <c r="B30">
-        <v>0.0029901186431064075</v>
+        <v>0.08635615828485274</v>
       </c>
       <c r="C30">
-        <v>-0.058560801157014536</v>
+        <v>-0.23521231967840742</v>
       </c>
       <c r="D30">
-        <v>0.15871386742406596</v>
+        <v>0.23859065081158087</v>
       </c>
       <c r="E30">
-        <v>-0.13165273088305313</v>
+        <v>-0.08800197763326457</v>
       </c>
       <c r="F30">
-        <v>-0.08271192454731169</v>
+        <v>0.041690350241863516</v>
       </c>
       <c r="G30">
-        <v>0.16998759740068678</v>
+        <v>-0.1373841085217551</v>
       </c>
       <c r="H30">
-        <v>-0.029885219758660767</v>
+        <v>0.10986133242775636</v>
       </c>
       <c r="I30">
-        <v>0.05223413459449187</v>
+        <v>-0.04251934601536099</v>
       </c>
       <c r="J30">
-        <v>-0.19661650259794997</v>
+        <v>0.005452807757933965</v>
       </c>
       <c r="K30">
-        <v>0.03084743292829705</v>
+        <v>0.04983507608506248</v>
       </c>
       <c r="L30">
-        <v>0.23006154334476747</v>
+        <v>-0.15192364854372062</v>
       </c>
       <c r="M30">
-        <v>-0.2505017336989678</v>
+        <v>0.18532531393572996</v>
       </c>
       <c r="N30">
-        <v>0.23510790434011328</v>
+        <v>-0.3139817101498702</v>
       </c>
       <c r="O30">
-        <v>-0.1856430830573076</v>
+        <v>0.3574505427146224</v>
       </c>
       <c r="P30">
-        <v>0.03797546617293541</v>
+        <v>-0.22163506799657307</v>
       </c>
       <c r="Q30">
-        <v>-0.06119284685891144</v>
+        <v>0.08566967593911094</v>
       </c>
       <c r="R30">
-        <v>0.12575153837027978</v>
+        <v>-0.08451506875913667</v>
       </c>
       <c r="S30">
-        <v>-0.014606861390422521</v>
+        <v>-0.01180717379216271</v>
       </c>
       <c r="T30">
-        <v>-0.020662722081536234</v>
+        <v>0.03264968240112484</v>
       </c>
       <c r="U30">
-        <v>0.06823228678765522</v>
+        <v>0.05983705904419497</v>
       </c>
       <c r="V30">
-        <v>-0.33062375813513195</v>
+        <v>-0.036537997148432165</v>
       </c>
       <c r="W30">
-        <v>0.4506039042927064</v>
+        <v>-0.10068510597159373</v>
       </c>
       <c r="X30">
-        <v>-0.337089517286747</v>
+        <v>0.13384642437699396</v>
       </c>
       <c r="Y30">
-        <v>0.22790816416966012</v>
+        <v>-0.2455994799671044</v>
       </c>
       <c r="Z30">
-        <v>-0.04500869929715415</v>
+        <v>0.3700267144541298</v>
       </c>
       <c r="AA30">
-        <v>-0.07495814976193049</v>
+        <v>-0.31580022683589826</v>
       </c>
       <c r="AB30">
-        <v>-0.12452964305900241</v>
+        <v>0.1537951553702782</v>
       </c>
       <c r="AC30">
-        <v>0.29914498068705786</v>
+        <v>-0.09569187140031268</v>
       </c>
       <c r="AD30">
-        <v>-0.18527225365528474</v>
+        <v>0.012427571622697899</v>
       </c>
       <c r="AE30">
-        <v>0.06648117848844126</v>
+        <v>-0.0038364469839167153</v>
       </c>
       <c r="AF30">
-        <v>-0.03386511737517186</v>
+        <v>0.00309816321776329</v>
       </c>
       <c r="AG30">
-        <v>-0.04999037493269122</v>
+        <v>0.07398837645096976</v>
       </c>
       <c r="AH30">
-        <v>0.09271577973971286</v>
+        <v>-0.16496256243856836</v>
       </c>
       <c r="AI30">
-        <v>-0.024824590101880206</v>
+        <v>0.08027641991269285</v>
       </c>
       <c r="AJ30">
-        <v>-0.020731463520985413</v>
+        <v>-0.07496154242732896</v>
       </c>
       <c r="AK30">
-        <v>-0.004252351615683671</v>
+        <v>0.1826851216248335</v>
       </c>
       <c r="AL30">
-        <v>0.023429572109335176</v>
+        <v>-0.19966544058514105</v>
       </c>
       <c r="AM30">
-        <v>-0.01336228910794731</v>
+        <v>0.07745599794426189</v>
       </c>
       <c r="AN30">
-        <v>0.0024875543692942093</v>
+        <v>-0.0046925889966146234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.0025945202917767216</v>
+        <v>0.11373576201162865</v>
       </c>
       <c r="B31">
-        <v>0.024436691481068605</v>
+        <v>-0.23977076345990106</v>
       </c>
       <c r="C31">
-        <v>-0.10328549892959929</v>
+        <v>0.15810154614704527</v>
       </c>
       <c r="D31">
-        <v>0.24519251018164587</v>
+        <v>0.17992103359835165</v>
       </c>
       <c r="E31">
-        <v>-0.3328447874330704</v>
+        <v>-0.23954634399097216</v>
       </c>
       <c r="F31">
-        <v>0.22151637444780337</v>
+        <v>-0.07842099545852241</v>
       </c>
       <c r="G31">
-        <v>-0.028036102702474086</v>
+        <v>0.26482066557137174</v>
       </c>
       <c r="H31">
-        <v>0.025773523416222088</v>
+        <v>0.06358952893327358</v>
       </c>
       <c r="I31">
-        <v>-0.12005858369070692</v>
+        <v>-0.23465607495328544</v>
       </c>
       <c r="J31">
-        <v>0.005311297277974199</v>
+        <v>0.017581195539896736</v>
       </c>
       <c r="K31">
-        <v>0.14388749966917772</v>
+        <v>0.0492419933602129</v>
       </c>
       <c r="L31">
-        <v>-0.019545729153585205</v>
+        <v>0.19754067460663136</v>
       </c>
       <c r="M31">
-        <v>-0.1057988872417083</v>
+        <v>-0.2047124796604059</v>
       </c>
       <c r="N31">
-        <v>-0.03442536326188152</v>
+        <v>0.03287970725886839</v>
       </c>
       <c r="O31">
-        <v>0.17037394278361667</v>
+        <v>0.02364323221603579</v>
       </c>
       <c r="P31">
-        <v>-0.16415099803796734</v>
+        <v>-0.15025377347303004</v>
       </c>
       <c r="Q31">
-        <v>0.178771469775146</v>
+        <v>0.2495936467020652</v>
       </c>
       <c r="R31">
-        <v>-0.1718610000449691</v>
+        <v>-0.09284944748924025</v>
       </c>
       <c r="S31">
-        <v>0.059520045933021966</v>
+        <v>-0.06329141147908629</v>
       </c>
       <c r="T31">
-        <v>0.04773562215786289</v>
+        <v>0.02840673504957741</v>
       </c>
       <c r="U31">
-        <v>-0.06673019698124469</v>
+        <v>-0.060958393011036595</v>
       </c>
       <c r="V31">
-        <v>-0.0022300076385934203</v>
+        <v>0.011872348350784595</v>
       </c>
       <c r="W31">
-        <v>0.07034314858943423</v>
+        <v>0.2191058619126787</v>
       </c>
       <c r="X31">
-        <v>0.010815204392740044</v>
+        <v>-0.22820107597243375</v>
       </c>
       <c r="Y31">
-        <v>-0.20600437851496128</v>
+        <v>0.06176137802999084</v>
       </c>
       <c r="Z31">
-        <v>0.3576889025123781</v>
+        <v>-0.03768881271550331</v>
       </c>
       <c r="AA31">
-        <v>-0.3995616143826381</v>
+        <v>-0.032260341226973084</v>
       </c>
       <c r="AB31">
-        <v>0.28667295792323344</v>
+        <v>0.2848071095324986</v>
       </c>
       <c r="AC31">
-        <v>-0.0550393065660142</v>
+        <v>-0.21971094904935257</v>
       </c>
       <c r="AD31">
-        <v>-0.11194535229987856</v>
+        <v>-0.09564557037414016</v>
       </c>
       <c r="AE31">
-        <v>0.1431802409098345</v>
+        <v>0.06080995682180057</v>
       </c>
       <c r="AF31">
-        <v>-0.09951286569107393</v>
+        <v>0.19446009517580512</v>
       </c>
       <c r="AG31">
-        <v>-0.031793029495662706</v>
+        <v>-0.11841302906921201</v>
       </c>
       <c r="AH31">
-        <v>0.20770518821792378</v>
+        <v>-0.18265462659296453</v>
       </c>
       <c r="AI31">
-        <v>-0.25420019350003453</v>
+        <v>0.09611395562778098</v>
       </c>
       <c r="AJ31">
-        <v>0.1369361532223895</v>
+        <v>0.17234979999754804</v>
       </c>
       <c r="AK31">
-        <v>-0.01242093914511628</v>
+        <v>-0.17048159927431172</v>
       </c>
       <c r="AL31">
-        <v>-0.02409737212819805</v>
+        <v>-0.13932099009321683</v>
       </c>
       <c r="AM31">
-        <v>0.012229333085615995</v>
+        <v>0.23612966278041223</v>
       </c>
       <c r="AN31">
-        <v>-0.001959535673088504</v>
+        <v>-0.12249146636640504</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.00794712576974238</v>
+        <v>0.023570805060156033</v>
       </c>
       <c r="B32">
-        <v>0.04389551485272672</v>
+        <v>-0.0530946468449328</v>
       </c>
       <c r="C32">
-        <v>-0.08445429150836699</v>
+        <v>-0.02702542613466488</v>
       </c>
       <c r="D32">
-        <v>0.042480825133578676</v>
+        <v>0.14180789735812185</v>
       </c>
       <c r="E32">
-        <v>0.04053222612975515</v>
+        <v>0.04420305418401686</v>
       </c>
       <c r="F32">
-        <v>0.03510342000539926</v>
+        <v>-0.23299274777866266</v>
       </c>
       <c r="G32">
-        <v>-0.20676562770114562</v>
+        <v>-0.03298671336582111</v>
       </c>
       <c r="H32">
-        <v>0.2036591594552248</v>
+        <v>0.2620560275358299</v>
       </c>
       <c r="I32">
-        <v>-0.16408080738204744</v>
+        <v>0.11910442464990262</v>
       </c>
       <c r="J32">
-        <v>0.3005322446451082</v>
+        <v>-0.20932295298481388</v>
       </c>
       <c r="K32">
-        <v>-0.30682095078515326</v>
+        <v>-0.19512755735394818</v>
       </c>
       <c r="L32">
-        <v>0.08387027811735363</v>
+        <v>0.15678641235974689</v>
       </c>
       <c r="M32">
-        <v>0.006718094308678844</v>
+        <v>0.22599441117176994</v>
       </c>
       <c r="N32">
-        <v>-0.02324256633327476</v>
+        <v>0.01321240223703603</v>
       </c>
       <c r="O32">
-        <v>0.16285498784840605</v>
+        <v>-0.14829086956287163</v>
       </c>
       <c r="P32">
-        <v>-0.20560418455824975</v>
+        <v>-0.1482962985845865</v>
       </c>
       <c r="Q32">
-        <v>0.17502335076115966</v>
+        <v>0.041552273026773605</v>
       </c>
       <c r="R32">
-        <v>-0.28259346450516093</v>
+        <v>0.2675698566954911</v>
       </c>
       <c r="S32">
-        <v>0.359917930780542</v>
+        <v>0.059057936428899865</v>
       </c>
       <c r="T32">
-        <v>-0.341015565336702</v>
+        <v>-0.15575002084649278</v>
       </c>
       <c r="U32">
-        <v>0.34463425873441195</v>
+        <v>-0.16565108133201656</v>
       </c>
       <c r="V32">
-        <v>-0.2520788987200003</v>
+        <v>-0.00038716070224702605</v>
       </c>
       <c r="W32">
-        <v>0.07979691480563403</v>
+        <v>0.24852595230972951</v>
       </c>
       <c r="X32">
-        <v>-0.014813621336025226</v>
+        <v>0.13571526846190546</v>
       </c>
       <c r="Y32">
-        <v>-0.006924747348672995</v>
+        <v>-0.1454879892784577</v>
       </c>
       <c r="Z32">
-        <v>0.006534018902546571</v>
+        <v>-0.20291910315621536</v>
       </c>
       <c r="AA32">
-        <v>0.1157127240287652</v>
+        <v>-0.017137561386197955</v>
       </c>
       <c r="AB32">
-        <v>-0.1975779297368522</v>
+        <v>0.2505137353054624</v>
       </c>
       <c r="AC32">
-        <v>0.09966103799204933</v>
+        <v>0.20848779032504</v>
       </c>
       <c r="AD32">
-        <v>0.012231359777910957</v>
+        <v>-0.22571790903321487</v>
       </c>
       <c r="AE32">
-        <v>-0.03466715449007284</v>
+        <v>-0.2244193821380538</v>
       </c>
       <c r="AF32">
-        <v>0.03475461126099849</v>
+        <v>0.1262094968407813</v>
       </c>
       <c r="AG32">
-        <v>-0.023283451014955436</v>
+        <v>0.2557215700918348</v>
       </c>
       <c r="AH32">
-        <v>-0.01375936978644096</v>
+        <v>-0.0186954015137183</v>
       </c>
       <c r="AI32">
-        <v>0.0378899110432179</v>
+        <v>-0.22109865173675544</v>
       </c>
       <c r="AJ32">
-        <v>-0.03367560036754251</v>
+        <v>0.02547719448999414</v>
       </c>
       <c r="AK32">
-        <v>0.021726681385880662</v>
+        <v>0.13898215690323204</v>
       </c>
       <c r="AL32">
-        <v>-0.011937688521635839</v>
+        <v>-0.012705085128259783</v>
       </c>
       <c r="AM32">
-        <v>0.004444827128872432</v>
+        <v>-0.060918042489565914</v>
       </c>
       <c r="AN32">
-        <v>-0.0007474942747356828</v>
+        <v>0.02525592278877721</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.007004588092415101</v>
+        <v>-0.14721462214788478</v>
       </c>
       <c r="B33">
-        <v>0.022608585484599573</v>
+        <v>0.1749517229327619</v>
       </c>
       <c r="C33">
-        <v>0.01025686254130676</v>
+        <v>0.02657700382503848</v>
       </c>
       <c r="D33">
-        <v>-0.11679601266389388</v>
+        <v>-0.145426867629383</v>
       </c>
       <c r="E33">
-        <v>0.11568849705402116</v>
+        <v>-0.07144925321833831</v>
       </c>
       <c r="F33">
-        <v>0.052566022609179086</v>
+        <v>0.010020551362100333</v>
       </c>
       <c r="G33">
-        <v>-0.052943876199889585</v>
+        <v>0.09407249703473258</v>
       </c>
       <c r="H33">
-        <v>-0.07388967821160332</v>
+        <v>0.08848168638006425</v>
       </c>
       <c r="I33">
-        <v>-0.1238986930299335</v>
+        <v>-0.14016320741256683</v>
       </c>
       <c r="J33">
-        <v>0.27311967360021133</v>
+        <v>-0.23278145997007002</v>
       </c>
       <c r="K33">
-        <v>0.06508622837717434</v>
+        <v>0.13794538670127118</v>
       </c>
       <c r="L33">
-        <v>-0.1371075236543632</v>
+        <v>0.1603569906802163</v>
       </c>
       <c r="M33">
-        <v>-0.25351461241953793</v>
+        <v>0.0990823120344181</v>
       </c>
       <c r="N33">
-        <v>0.2821999632703061</v>
+        <v>-0.2727773267196404</v>
       </c>
       <c r="O33">
-        <v>-0.13863559491191632</v>
+        <v>-0.14102573654688455</v>
       </c>
       <c r="P33">
-        <v>0.2056248498015059</v>
+        <v>0.2146366749031143</v>
       </c>
       <c r="Q33">
-        <v>0.011113484080659054</v>
+        <v>0.10494845704459624</v>
       </c>
       <c r="R33">
-        <v>-0.28633678519731537</v>
+        <v>0.09923896222459756</v>
       </c>
       <c r="S33">
-        <v>0.1645308742805288</v>
+        <v>-0.2158791950369441</v>
       </c>
       <c r="T33">
-        <v>-0.05848962399477153</v>
+        <v>-0.20103113357463961</v>
       </c>
       <c r="U33">
-        <v>-0.02852648242858657</v>
+        <v>0.182226443242312</v>
       </c>
       <c r="V33">
-        <v>0.2115850072011217</v>
+        <v>0.24788586421747158</v>
       </c>
       <c r="W33">
-        <v>-0.026874281560900465</v>
+        <v>-0.08276609518273581</v>
       </c>
       <c r="X33">
-        <v>-0.29529830111149336</v>
+        <v>-0.10911095263612564</v>
       </c>
       <c r="Y33">
-        <v>0.2963075511105328</v>
+        <v>-0.24707295301061366</v>
       </c>
       <c r="Z33">
-        <v>-0.22701701240169406</v>
+        <v>0.12873754357856612</v>
       </c>
       <c r="AA33">
-        <v>0.03775255133474405</v>
+        <v>0.3137902646899014</v>
       </c>
       <c r="AB33">
-        <v>0.2997062640639884</v>
+        <v>-0.0973890636042869</v>
       </c>
       <c r="AC33">
-        <v>-0.2167104000563838</v>
+        <v>-0.17353566700994805</v>
       </c>
       <c r="AD33">
-        <v>-0.13584007353979896</v>
+        <v>-0.16089723798535457</v>
       </c>
       <c r="AE33">
-        <v>0.1495837571610884</v>
+        <v>0.19336804467914742</v>
       </c>
       <c r="AF33">
-        <v>-0.06768619145586777</v>
+        <v>0.17469946633370267</v>
       </c>
       <c r="AG33">
-        <v>0.1478653099327039</v>
+        <v>-0.04738917629808379</v>
       </c>
       <c r="AH33">
-        <v>-0.06690187062387999</v>
+        <v>-0.12616800557730773</v>
       </c>
       <c r="AI33">
-        <v>-0.1300163170651142</v>
+        <v>-0.048317913523168034</v>
       </c>
       <c r="AJ33">
-        <v>0.09441340314317825</v>
+        <v>0.10897206410242301</v>
       </c>
       <c r="AK33">
-        <v>0.07494743606860567</v>
+        <v>0.151229028610065</v>
       </c>
       <c r="AL33">
-        <v>-0.11512924157810554</v>
+        <v>-0.03966227080505132</v>
       </c>
       <c r="AM33">
-        <v>0.052210595000304165</v>
+        <v>-0.16025489166523801</v>
       </c>
       <c r="AN33">
-        <v>-0.008609527531226787</v>
+        <v>0.14816692835128664</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.013764246479652463</v>
+        <v>0.05098124646935796</v>
       </c>
       <c r="B34">
-        <v>-0.07012594091213141</v>
+        <v>-0.12393151416146177</v>
       </c>
       <c r="C34">
-        <v>0.13067182094918342</v>
+        <v>0.053821909726766676</v>
       </c>
       <c r="D34">
-        <v>-0.10514348466405261</v>
+        <v>0.13525131240241237</v>
       </c>
       <c r="E34">
-        <v>0.061230102810449036</v>
+        <v>-0.2717149596125595</v>
       </c>
       <c r="F34">
-        <v>-0.042627184164461596</v>
+        <v>0.24879379976317534</v>
       </c>
       <c r="G34">
-        <v>-0.18629316969805362</v>
+        <v>-0.17515739802575822</v>
       </c>
       <c r="H34">
-        <v>0.42567369562799573</v>
+        <v>-0.04060007564586269</v>
       </c>
       <c r="I34">
-        <v>-0.07325504531452202</v>
+        <v>0.17853174058560264</v>
       </c>
       <c r="J34">
-        <v>-0.3643165336400745</v>
+        <v>-0.16031900106163485</v>
       </c>
       <c r="K34">
-        <v>0.0900629891212721</v>
+        <v>0.03422375929268493</v>
       </c>
       <c r="L34">
-        <v>0.1174974327235579</v>
+        <v>-0.12242248186020976</v>
       </c>
       <c r="M34">
-        <v>0.20866437437432134</v>
+        <v>0.06636613354612518</v>
       </c>
       <c r="N34">
-        <v>-0.13251759666233062</v>
+        <v>0.07988506458430367</v>
       </c>
       <c r="O34">
-        <v>-0.1890983028316039</v>
+        <v>-0.1700112065434618</v>
       </c>
       <c r="P34">
-        <v>0.0009272872286993145</v>
+        <v>-0.00577492310127195</v>
       </c>
       <c r="Q34">
-        <v>0.17770467081313093</v>
+        <v>0.08848961034436248</v>
       </c>
       <c r="R34">
-        <v>-0.15163313474328413</v>
+        <v>-0.18811273748440901</v>
       </c>
       <c r="S34">
-        <v>0.23160749146692577</v>
+        <v>0.20748259565595037</v>
       </c>
       <c r="T34">
-        <v>-0.012587150164212715</v>
+        <v>-0.08588699773179824</v>
       </c>
       <c r="U34">
-        <v>-0.2950283770422308</v>
+        <v>-0.22255201992449175</v>
       </c>
       <c r="V34">
-        <v>0.07848312838130352</v>
+        <v>0.27651448491459224</v>
       </c>
       <c r="W34">
-        <v>0.17708864293177387</v>
+        <v>-0.1183495092755383</v>
       </c>
       <c r="X34">
-        <v>-0.1533303620988884</v>
+        <v>-0.029852676083238102</v>
       </c>
       <c r="Y34">
-        <v>0.13705045757573583</v>
+        <v>0.02095979723576543</v>
       </c>
       <c r="Z34">
-        <v>-0.013832669125221034</v>
+        <v>-0.10655788519568112</v>
       </c>
       <c r="AA34">
-        <v>-0.09109679468620402</v>
+        <v>0.06888326473273793</v>
       </c>
       <c r="AB34">
-        <v>-0.028736171047864283</v>
+        <v>0.06326684440790425</v>
       </c>
       <c r="AC34">
-        <v>-0.06981007168460862</v>
+        <v>-0.18445743176113963</v>
       </c>
       <c r="AD34">
-        <v>0.29558015120692316</v>
+        <v>0.1017096642750958</v>
       </c>
       <c r="AE34">
-        <v>-0.05895239651086664</v>
+        <v>-0.14223287002419932</v>
       </c>
       <c r="AF34">
-        <v>-0.2702341954605279</v>
+        <v>0.056416443099677666</v>
       </c>
       <c r="AG34">
-        <v>0.15103746771941318</v>
+        <v>0.1300923041822131</v>
       </c>
       <c r="AH34">
-        <v>0.04635618628951904</v>
+        <v>-0.3264317609687075</v>
       </c>
       <c r="AI34">
-        <v>-0.006986674821922386</v>
+        <v>0.276087836979455</v>
       </c>
       <c r="AJ34">
-        <v>-0.0248130180784407</v>
+        <v>-0.19202145003795296</v>
       </c>
       <c r="AK34">
-        <v>-0.04826991215248814</v>
+        <v>-0.020552172578304065</v>
       </c>
       <c r="AL34">
-        <v>0.07593220184852516</v>
+        <v>0.2233572476767445</v>
       </c>
       <c r="AM34">
-        <v>-0.03706317296297024</v>
+        <v>-0.24745773612186914</v>
       </c>
       <c r="AN34">
-        <v>0.00648199936670334</v>
+        <v>0.09143521792985829</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.000490205901200264</v>
+        <v>-0.0700028013947657</v>
       </c>
       <c r="B35">
-        <v>-0.02683560485265591</v>
+        <v>0.21001787929822427</v>
       </c>
       <c r="C35">
-        <v>0.14750559535822727</v>
+        <v>-0.30321454923124347</v>
       </c>
       <c r="D35">
-        <v>-0.3025431290106378</v>
+        <v>0.24055213333207912</v>
       </c>
       <c r="E35">
-        <v>0.16168601018738316</v>
+        <v>-0.07879438073985645</v>
       </c>
       <c r="F35">
-        <v>0.3131200003849075</v>
+        <v>-0.09042128346487979</v>
       </c>
       <c r="G35">
-        <v>-0.4316842824887694</v>
+        <v>0.1932003262579291</v>
       </c>
       <c r="H35">
-        <v>-0.07633144788046148</v>
+        <v>-0.21021222831179465</v>
       </c>
       <c r="I35">
-        <v>0.3600084825143785</v>
+        <v>0.17731594925359073</v>
       </c>
       <c r="J35">
-        <v>-0.0681736781875465</v>
+        <v>-0.07888550924360305</v>
       </c>
       <c r="K35">
-        <v>-0.12634186256692354</v>
+        <v>-0.023445646741027584</v>
       </c>
       <c r="L35">
-        <v>0.11323033290004035</v>
+        <v>0.05216780155316994</v>
       </c>
       <c r="M35">
-        <v>-0.1678736688639771</v>
+        <v>-0.00024143116008288172</v>
       </c>
       <c r="N35">
-        <v>0.06761546150051607</v>
+        <v>0.027590328279580932</v>
       </c>
       <c r="O35">
-        <v>0.09784599669503687</v>
+        <v>-0.026077427246769733</v>
       </c>
       <c r="P35">
-        <v>-0.0911067441135148</v>
+        <v>-0.04723774098015991</v>
       </c>
       <c r="Q35">
-        <v>0.15514542018838634</v>
+        <v>0.09945926412627956</v>
       </c>
       <c r="R35">
-        <v>-0.12028100858481067</v>
+        <v>0.051849435621423724</v>
       </c>
       <c r="S35">
-        <v>-0.23450041081281645</v>
+        <v>-0.21177607047741898</v>
       </c>
       <c r="T35">
-        <v>0.3261014293119584</v>
+        <v>0.23751165723631582</v>
       </c>
       <c r="U35">
-        <v>-0.011179968191624397</v>
+        <v>-0.14367963045938772</v>
       </c>
       <c r="V35">
-        <v>-0.16795827648389736</v>
+        <v>0.06952159889578488</v>
       </c>
       <c r="W35">
-        <v>0.14511629210706142</v>
+        <v>0.04078111151524815</v>
       </c>
       <c r="X35">
-        <v>-0.03360116929749791</v>
+        <v>-0.09907393320475376</v>
       </c>
       <c r="Y35">
-        <v>-0.12113953024063961</v>
+        <v>0.006155963167532826</v>
       </c>
       <c r="Z35">
-        <v>0.04575204422558682</v>
+        <v>0.12296678715786559</v>
       </c>
       <c r="AA35">
-        <v>0.13444245215911593</v>
+        <v>-0.060494982367309186</v>
       </c>
       <c r="AB35">
-        <v>-0.05541113908475576</v>
+        <v>-0.027239154463458436</v>
       </c>
       <c r="AC35">
-        <v>-0.04670168679757119</v>
+        <v>0.02715827988544826</v>
       </c>
       <c r="AD35">
-        <v>-0.07023122204426684</v>
+        <v>-0.04512414572267506</v>
       </c>
       <c r="AE35">
-        <v>0.1481617403513311</v>
+        <v>0.20444266228032676</v>
       </c>
       <c r="AF35">
-        <v>-0.07840446047224299</v>
+        <v>-0.29497225403199706</v>
       </c>
       <c r="AG35">
-        <v>0.004433043068343463</v>
+        <v>0.26540868459358713</v>
       </c>
       <c r="AH35">
-        <v>0.039460838031972374</v>
+        <v>-0.0905240819962576</v>
       </c>
       <c r="AI35">
-        <v>-0.03062252597920773</v>
+        <v>-0.10471573871690172</v>
       </c>
       <c r="AJ35">
-        <v>-0.05787217375388669</v>
+        <v>0.28089436596995254</v>
       </c>
       <c r="AK35">
-        <v>0.12534930698393187</v>
+        <v>-0.3141565276443984</v>
       </c>
       <c r="AL35">
-        <v>-0.09755018495455116</v>
+        <v>0.26288557230028764</v>
       </c>
       <c r="AM35">
-        <v>0.036320982432082344</v>
+        <v>-0.14163852380165462</v>
       </c>
       <c r="AN35">
-        <v>-0.005476531424900994</v>
+        <v>0.0487342954571276</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.0230991748311826</v>
+        <v>-0.0036909528140172034</v>
       </c>
       <c r="B36">
-        <v>0.13465211813885497</v>
+        <v>-0.03703271397057073</v>
       </c>
       <c r="C36">
-        <v>-0.29826652356653244</v>
+        <v>0.10998456502421498</v>
       </c>
       <c r="D36">
-        <v>0.2805739537044283</v>
+        <v>0.04371254089155945</v>
       </c>
       <c r="E36">
-        <v>-0.09046915594370172</v>
+        <v>-0.13713225631337608</v>
       </c>
       <c r="F36">
-        <v>0.12271219577097436</v>
+        <v>-0.008907803596690168</v>
       </c>
       <c r="G36">
-        <v>-0.2638685543357638</v>
+        <v>0.14331465448663833</v>
       </c>
       <c r="H36">
-        <v>0.0016259035783648063</v>
+        <v>0.17114756513339477</v>
       </c>
       <c r="I36">
-        <v>0.26864433322534537</v>
+        <v>-0.06106873744848381</v>
       </c>
       <c r="J36">
-        <v>-0.03923819133735781</v>
+        <v>-0.2178616550037571</v>
       </c>
       <c r="K36">
-        <v>-0.07494076346514796</v>
+        <v>0.11783175282954367</v>
       </c>
       <c r="L36">
-        <v>-0.11613308676758297</v>
+        <v>0.3483586709822767</v>
       </c>
       <c r="M36">
-        <v>0.01435731671260566</v>
+        <v>0.025038732093867717</v>
       </c>
       <c r="N36">
-        <v>0.10099446290903824</v>
+        <v>-0.2724876063058128</v>
       </c>
       <c r="O36">
-        <v>0.01628368721858977</v>
+        <v>-0.009215484024237833</v>
       </c>
       <c r="P36">
-        <v>0.1848202917788936</v>
+        <v>0.3472585351611445</v>
       </c>
       <c r="Q36">
-        <v>-0.40747991433132863</v>
+        <v>0.10658480042987192</v>
       </c>
       <c r="R36">
-        <v>0.13092538692184547</v>
+        <v>-0.21378097171481603</v>
       </c>
       <c r="S36">
-        <v>0.10251122171261431</v>
+        <v>-0.040117399168783485</v>
       </c>
       <c r="T36">
-        <v>-0.05588916757314718</v>
+        <v>0.17785941314593454</v>
       </c>
       <c r="U36">
-        <v>0.04873585084978297</v>
+        <v>0.15837296720543692</v>
       </c>
       <c r="V36">
-        <v>-0.025368219458884605</v>
+        <v>-0.041385193422381235</v>
       </c>
       <c r="W36">
-        <v>0.013420191843297966</v>
+        <v>-0.19167897859609856</v>
       </c>
       <c r="X36">
-        <v>-0.046117881429349826</v>
+        <v>0.07982301152326438</v>
       </c>
       <c r="Y36">
-        <v>-0.07233700572022106</v>
+        <v>0.32578799682033976</v>
       </c>
       <c r="Z36">
-        <v>0.07822180208422684</v>
+        <v>-0.0013363057122511915</v>
       </c>
       <c r="AA36">
-        <v>0.17717311513398343</v>
+        <v>-0.2623109693142896</v>
       </c>
       <c r="AB36">
-        <v>-0.1650180979703075</v>
+        <v>0.03205945611221147</v>
       </c>
       <c r="AC36">
-        <v>-0.15835359887409903</v>
+        <v>0.31933436418268085</v>
       </c>
       <c r="AD36">
-        <v>0.2321561041242813</v>
+        <v>0.10319543814963622</v>
       </c>
       <c r="AE36">
-        <v>0.004874640052874979</v>
+        <v>-0.19270395870450852</v>
       </c>
       <c r="AF36">
-        <v>-0.2166851860899843</v>
+        <v>-0.010334689826397393</v>
       </c>
       <c r="AG36">
-        <v>0.23521839495925692</v>
+        <v>0.16248149516166033</v>
       </c>
       <c r="AH36">
-        <v>-0.04387383926323728</v>
+        <v>0.07473072720989919</v>
       </c>
       <c r="AI36">
-        <v>-0.19979135978696552</v>
+        <v>0.037260339089497406</v>
       </c>
       <c r="AJ36">
-        <v>0.25906560622729985</v>
+        <v>-0.07225050406701215</v>
       </c>
       <c r="AK36">
-        <v>-0.14103265213494506</v>
+        <v>0.013338178482663554</v>
       </c>
       <c r="AL36">
-        <v>0.0298508266667037</v>
+        <v>0.09299569016290549</v>
       </c>
       <c r="AM36">
-        <v>0.002767651411993644</v>
+        <v>-0.020271822249719896</v>
       </c>
       <c r="AN36">
-        <v>-0.0016720573628166652</v>
+        <v>0.005275107521036537</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.02350994621385489</v>
+        <v>0.10708015515102183</v>
       </c>
       <c r="B37">
-        <v>0.13843936900280857</v>
+        <v>-0.18586049815279185</v>
       </c>
       <c r="C37">
-        <v>-0.2890362209490074</v>
+        <v>0.03729812737098596</v>
       </c>
       <c r="D37">
-        <v>0.15542084600633901</v>
+        <v>0.11349596687520254</v>
       </c>
       <c r="E37">
-        <v>0.27900381794736145</v>
+        <v>0.08141202583185851</v>
       </c>
       <c r="F37">
-        <v>-0.3504289125818908</v>
+        <v>-0.14950415350546137</v>
       </c>
       <c r="G37">
-        <v>-0.06021247739590839</v>
+        <v>-0.11734587325578974</v>
       </c>
       <c r="H37">
-        <v>0.09141855667407008</v>
+        <v>0.13884044734788026</v>
       </c>
       <c r="I37">
-        <v>0.2031367932191577</v>
+        <v>0.15419935683979516</v>
       </c>
       <c r="J37">
-        <v>-0.017464349540972965</v>
+        <v>-0.008705216578186993</v>
       </c>
       <c r="K37">
-        <v>-0.10251457738264431</v>
+        <v>-0.2966150524593478</v>
       </c>
       <c r="L37">
-        <v>-0.31002082356593264</v>
+        <v>0.026042942338947675</v>
       </c>
       <c r="M37">
-        <v>0.2361235203182055</v>
+        <v>0.2931010846262413</v>
       </c>
       <c r="N37">
-        <v>0.2737037600750013</v>
+        <v>0.03936535642481278</v>
       </c>
       <c r="O37">
-        <v>-0.16407224598812778</v>
+        <v>-0.3121254277183883</v>
       </c>
       <c r="P37">
-        <v>-0.13428903567510583</v>
+        <v>-0.06725314690110698</v>
       </c>
       <c r="Q37">
-        <v>0.08913315366798678</v>
+        <v>0.2918388800064317</v>
       </c>
       <c r="R37">
-        <v>-0.12435922711546725</v>
+        <v>0.034173170824021604</v>
       </c>
       <c r="S37">
-        <v>0.06447618196273219</v>
+        <v>-0.16662852120769675</v>
       </c>
       <c r="T37">
-        <v>0.18395512118627083</v>
+        <v>-0.12352817584688737</v>
       </c>
       <c r="U37">
-        <v>-0.10342346211714928</v>
+        <v>0.1318145467742345</v>
       </c>
       <c r="V37">
-        <v>-0.061503309844430636</v>
+        <v>0.1298259897024973</v>
       </c>
       <c r="W37">
-        <v>-0.006492765661190653</v>
+        <v>-0.02082295209507025</v>
       </c>
       <c r="X37">
-        <v>-0.005878517870432696</v>
+        <v>-0.25791828184014315</v>
       </c>
       <c r="Y37">
-        <v>0.005294374740039539</v>
+        <v>0.05145821319902755</v>
       </c>
       <c r="Z37">
-        <v>0.10642125337659554</v>
+        <v>0.2812233540665145</v>
       </c>
       <c r="AA37">
-        <v>-0.05705529290834441</v>
+        <v>-0.036192112860576844</v>
       </c>
       <c r="AB37">
-        <v>0.03606295224009923</v>
+        <v>-0.2779324488548268</v>
       </c>
       <c r="AC37">
-        <v>-0.11302307885899864</v>
+        <v>-0.009495516816328918</v>
       </c>
       <c r="AD37">
-        <v>-0.08397866304850718</v>
+        <v>0.2865592033696329</v>
       </c>
       <c r="AE37">
-        <v>0.24891592128920315</v>
+        <v>-0.025369635366227827</v>
       </c>
       <c r="AF37">
-        <v>0.0635942598581419</v>
+        <v>-0.14219449659986777</v>
       </c>
       <c r="AG37">
-        <v>-0.33715181723002474</v>
+        <v>-0.09770224033627335</v>
       </c>
       <c r="AH37">
-        <v>0.13197501397107358</v>
+        <v>0.10920229200955223</v>
       </c>
       <c r="AI37">
-        <v>0.11838562696011669</v>
+        <v>0.08474516205871875</v>
       </c>
       <c r="AJ37">
-        <v>-0.07116916326989613</v>
+        <v>-0.05779552446918606</v>
       </c>
       <c r="AK37">
-        <v>-0.05545689368371926</v>
+        <v>-0.05858100688080403</v>
       </c>
       <c r="AL37">
-        <v>0.06742075505587597</v>
+        <v>-0.08029499682520166</v>
       </c>
       <c r="AM37">
-        <v>-0.02532022128422764</v>
+        <v>0.1752013781129689</v>
       </c>
       <c r="AN37">
-        <v>0.0034556098425973666</v>
+        <v>-0.09644244550249391</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.010820049104382652</v>
+        <v>-0.10980428457993546</v>
       </c>
       <c r="B38">
-        <v>-0.05587778630149083</v>
+        <v>-0.023384786444951726</v>
       </c>
       <c r="C38">
-        <v>0.09157721859007563</v>
+        <v>0.017869869909924688</v>
       </c>
       <c r="D38">
-        <v>0.0006528844511900257</v>
+        <v>-0.062053377402202306</v>
       </c>
       <c r="E38">
-        <v>-0.1324267645230872</v>
+        <v>-0.1514109189640066</v>
       </c>
       <c r="F38">
-        <v>0.0007751731798090408</v>
+        <v>-0.17538019002550337</v>
       </c>
       <c r="G38">
-        <v>0.31108837182593907</v>
+        <v>-0.050763907944739284</v>
       </c>
       <c r="H38">
-        <v>-0.3706931923986552</v>
+        <v>-0.10333857150870653</v>
       </c>
       <c r="I38">
-        <v>0.16967898961442546</v>
+        <v>-0.1961772506615976</v>
       </c>
       <c r="J38">
-        <v>0.04385734988337595</v>
+        <v>-0.20979880299286124</v>
       </c>
       <c r="K38">
-        <v>-0.19794698752051132</v>
+        <v>-0.1889081069782822</v>
       </c>
       <c r="L38">
-        <v>0.07581016385340032</v>
+        <v>-0.15132132006007334</v>
       </c>
       <c r="M38">
-        <v>0.26608752213997766</v>
+        <v>-0.18032870188439665</v>
       </c>
       <c r="N38">
-        <v>-0.23453719268793716</v>
+        <v>-0.23779599627101541</v>
       </c>
       <c r="O38">
-        <v>-0.09182595554398823</v>
+        <v>-0.20994705580386455</v>
       </c>
       <c r="P38">
-        <v>0.1061134464338156</v>
+        <v>-0.13386500853206953</v>
       </c>
       <c r="Q38">
-        <v>0.04879075961508535</v>
+        <v>-0.1388572928482341</v>
       </c>
       <c r="R38">
-        <v>-0.08493212935316953</v>
+        <v>-0.2135852583873644</v>
       </c>
       <c r="S38">
-        <v>0.1270628846934081</v>
+        <v>-0.2189933723734089</v>
       </c>
       <c r="T38">
-        <v>-0.10451976354662303</v>
+        <v>-0.10258617056308386</v>
       </c>
       <c r="U38">
-        <v>0.04976656422105467</v>
+        <v>-0.10089332703866041</v>
       </c>
       <c r="V38">
-        <v>-0.13414134774485906</v>
+        <v>-0.19349686021652335</v>
       </c>
       <c r="W38">
-        <v>0.10639441867251437</v>
+        <v>-0.18888845105313623</v>
       </c>
       <c r="X38">
-        <v>0.061521612203347203</v>
+        <v>-0.1257325230867419</v>
       </c>
       <c r="Y38">
-        <v>-0.0028842779950322777</v>
+        <v>-0.14448381897855786</v>
       </c>
       <c r="Z38">
-        <v>-0.16678411084595754</v>
+        <v>-0.20406842225722202</v>
       </c>
       <c r="AA38">
-        <v>0.12780820002423668</v>
+        <v>-0.21238148195859657</v>
       </c>
       <c r="AB38">
-        <v>0.07318514057298801</v>
+        <v>-0.1602059361187182</v>
       </c>
       <c r="AC38">
-        <v>-0.2470289062989415</v>
+        <v>-0.14224019455601958</v>
       </c>
       <c r="AD38">
-        <v>0.1444766010136259</v>
+        <v>-0.20924568178543884</v>
       </c>
       <c r="AE38">
-        <v>0.2144732387789005</v>
+        <v>-0.22786283063583346</v>
       </c>
       <c r="AF38">
-        <v>-0.2842708609751691</v>
+        <v>-0.22089691730602384</v>
       </c>
       <c r="AG38">
-        <v>-0.1010188445644389</v>
+        <v>-0.11058825753919478</v>
       </c>
       <c r="AH38">
-        <v>0.3394890376318822</v>
+        <v>-0.05695888147826821</v>
       </c>
       <c r="AI38">
-        <v>-0.1321512219263406</v>
+        <v>-0.20449384717538882</v>
       </c>
       <c r="AJ38">
-        <v>-0.1267843485991916</v>
+        <v>-0.1636559282094293</v>
       </c>
       <c r="AK38">
-        <v>0.14937479324120548</v>
+        <v>-0.08118639294615329</v>
       </c>
       <c r="AL38">
-        <v>-0.06033732372883694</v>
+        <v>0.002569445498539847</v>
       </c>
       <c r="AM38">
-        <v>0.00950404288279099</v>
+        <v>-0.02773570839988465</v>
       </c>
       <c r="AN38">
-        <v>-0.00011521115178169072</v>
+        <v>-0.11037192027491853</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.006400600611854014</v>
+        <v>0.03574857601711821</v>
       </c>
       <c r="B39">
-        <v>0.02536257292698254</v>
+        <v>0.0460665493298024</v>
       </c>
       <c r="C39">
-        <v>-0.011259126513650929</v>
+        <v>-0.16892484061817778</v>
       </c>
       <c r="D39">
-        <v>-0.09169473175646674</v>
+        <v>0.09957532428118208</v>
       </c>
       <c r="E39">
-        <v>0.17465199229355888</v>
+        <v>0.16791673809488986</v>
       </c>
       <c r="F39">
-        <v>-0.1149704545400126</v>
+        <v>-0.12675055399553534</v>
       </c>
       <c r="G39">
-        <v>0.09831516095340857</v>
+        <v>-0.12010629339575442</v>
       </c>
       <c r="H39">
-        <v>-0.242500803442963</v>
+        <v>0.17348638574418127</v>
       </c>
       <c r="I39">
-        <v>0.30153245507528503</v>
+        <v>0.0677611757868457</v>
       </c>
       <c r="J39">
-        <v>-0.28753133823292976</v>
+        <v>-0.19669494641813878</v>
       </c>
       <c r="K39">
-        <v>0.3728906595261983</v>
+        <v>0.09505229044506032</v>
       </c>
       <c r="L39">
-        <v>-0.2912703763648363</v>
+        <v>0.10311957199081864</v>
       </c>
       <c r="M39">
-        <v>0.08247707998837613</v>
+        <v>-0.17100803423060323</v>
       </c>
       <c r="N39">
-        <v>-0.19112955486490915</v>
+        <v>0.031472694156660264</v>
       </c>
       <c r="O39">
-        <v>0.344674570223415</v>
+        <v>0.15267038226908594</v>
       </c>
       <c r="P39">
-        <v>-0.20111110532949514</v>
+        <v>-0.19790392942661816</v>
       </c>
       <c r="Q39">
-        <v>0.12087413794889301</v>
+        <v>-0.061654143984891795</v>
       </c>
       <c r="R39">
-        <v>-0.14948694257742912</v>
+        <v>0.2797809034888398</v>
       </c>
       <c r="S39">
-        <v>0.10327706326818557</v>
+        <v>-0.11274007558759509</v>
       </c>
       <c r="T39">
-        <v>-0.1589901882386242</v>
+        <v>-0.25715389839166164</v>
       </c>
       <c r="U39">
-        <v>0.18319107329285342</v>
+        <v>0.208129684207363</v>
       </c>
       <c r="V39">
-        <v>-0.047140793101575054</v>
+        <v>0.14616164509363042</v>
       </c>
       <c r="W39">
-        <v>0.08623553434768902</v>
+        <v>-0.27667394414503876</v>
       </c>
       <c r="X39">
-        <v>-0.2043444836270731</v>
+        <v>0.032483725026994224</v>
       </c>
       <c r="Y39">
-        <v>0.11388899814087979</v>
+        <v>0.22867269126259726</v>
       </c>
       <c r="Z39">
-        <v>-0.033942971425697466</v>
+        <v>-0.16374575952984013</v>
       </c>
       <c r="AA39">
-        <v>0.030970439594571297</v>
+        <v>-0.09592504675534604</v>
       </c>
       <c r="AB39">
-        <v>0.007264070453261513</v>
+        <v>0.19711486129912614</v>
       </c>
       <c r="AC39">
-        <v>0.032274473658423154</v>
+        <v>-0.0671278055985193</v>
       </c>
       <c r="AD39">
-        <v>-0.024589571674656172</v>
+        <v>-0.11573441925110638</v>
       </c>
       <c r="AE39">
-        <v>-0.1440326545035206</v>
+        <v>0.1833823878769929</v>
       </c>
       <c r="AF39">
-        <v>0.130738580997117</v>
+        <v>-0.04007151054653146</v>
       </c>
       <c r="AG39">
-        <v>0.08476241556262146</v>
+        <v>-0.2231650209606682</v>
       </c>
       <c r="AH39">
-        <v>-0.07240613123951775</v>
+        <v>0.08431648027271674</v>
       </c>
       <c r="AI39">
-        <v>-0.13786871022265695</v>
+        <v>0.2274117575416043</v>
       </c>
       <c r="AJ39">
-        <v>0.17587184408407386</v>
+        <v>-0.19193511739901914</v>
       </c>
       <c r="AK39">
-        <v>-0.04497699962083526</v>
+        <v>-0.18754245722901405</v>
       </c>
       <c r="AL39">
-        <v>-0.032693732979093074</v>
+        <v>0.21184206112407927</v>
       </c>
       <c r="AM39">
-        <v>0.023527843462335125</v>
+        <v>-0.02711415965908327</v>
       </c>
       <c r="AN39">
-        <v>-0.004479483548419428</v>
+        <v>-0.06291385851242592</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.01245001457130996</v>
+        <v>0.0853545700027418</v>
       </c>
       <c r="B40">
-        <v>-0.06039788025946771</v>
+        <v>-0.13709075505360965</v>
       </c>
       <c r="C40">
-        <v>0.07991376480235848</v>
+        <v>0.002842419091181034</v>
       </c>
       <c r="D40">
-        <v>0.08297417782697615</v>
+        <v>0.21360547788270232</v>
       </c>
       <c r="E40">
-        <v>-0.34261661137080507</v>
+        <v>-0.11435528319088104</v>
       </c>
       <c r="F40">
-        <v>0.3535850380091418</v>
+        <v>-0.10502011546534613</v>
       </c>
       <c r="G40">
-        <v>-0.1372559439994385</v>
+        <v>0.1278713789471234</v>
       </c>
       <c r="H40">
-        <v>0.056447348829982404</v>
+        <v>0.10837840238693715</v>
       </c>
       <c r="I40">
-        <v>-0.08841250558250924</v>
+        <v>-0.1563128729949012</v>
       </c>
       <c r="J40">
-        <v>0.011108371524630485</v>
+        <v>0.026090151568693036</v>
       </c>
       <c r="K40">
-        <v>0.1361021868714242</v>
+        <v>0.19789705633118407</v>
       </c>
       <c r="L40">
-        <v>-0.27318994873183056</v>
+        <v>-0.14759990230131298</v>
       </c>
       <c r="M40">
-        <v>0.23866657669415509</v>
+        <v>-0.028311939705076228</v>
       </c>
       <c r="N40">
-        <v>0.016188140983243438</v>
+        <v>0.22135884211579185</v>
       </c>
       <c r="O40">
-        <v>-0.05162547635331024</v>
+        <v>-0.09520622482007797</v>
       </c>
       <c r="P40">
-        <v>-0.1728844984288906</v>
+        <v>-0.11432171285030046</v>
       </c>
       <c r="Q40">
-        <v>0.11459324668442374</v>
+        <v>0.2603589876256573</v>
       </c>
       <c r="R40">
-        <v>0.12298100353389599</v>
+        <v>-0.001158324542071615</v>
       </c>
       <c r="S40">
-        <v>-0.1365821573041697</v>
+        <v>-0.24613385912381497</v>
       </c>
       <c r="T40">
-        <v>0.0356659843062944</v>
+        <v>0.17950290707743327</v>
       </c>
       <c r="U40">
-        <v>0.10590324741771875</v>
+        <v>0.20830546958145785</v>
       </c>
       <c r="V40">
-        <v>-0.19158097646195443</v>
+        <v>-0.23123622923077788</v>
       </c>
       <c r="W40">
-        <v>0.03197250031351183</v>
+        <v>-0.03571468553479999</v>
       </c>
       <c r="X40">
-        <v>0.021993983068490635</v>
+        <v>0.27310676428893693</v>
       </c>
       <c r="Y40">
-        <v>0.23942702416540382</v>
+        <v>-0.0872741662373103</v>
       </c>
       <c r="Z40">
-        <v>-0.3393905133646886</v>
+        <v>-0.154047294783999</v>
       </c>
       <c r="AA40">
-        <v>0.11926320194486005</v>
+        <v>0.2312378743121894</v>
       </c>
       <c r="AB40">
-        <v>0.09351390567062293</v>
+        <v>0.025970736663464573</v>
       </c>
       <c r="AC40">
-        <v>-0.11235967743375555</v>
+        <v>-0.17923564871490993</v>
       </c>
       <c r="AD40">
-        <v>-0.05987086555226091</v>
+        <v>0.1728483669750117</v>
       </c>
       <c r="AE40">
-        <v>0.16584799432906597</v>
+        <v>0.06151430357308596</v>
       </c>
       <c r="AF40">
-        <v>-0.0002107505423118027</v>
+        <v>-0.16758045975793326</v>
       </c>
       <c r="AG40">
-        <v>-0.08857391556928088</v>
+        <v>0.08046529434601792</v>
       </c>
       <c r="AH40">
-        <v>-0.12254788392099199</v>
+        <v>0.18055671357270822</v>
       </c>
       <c r="AI40">
-        <v>0.20667963297422812</v>
+        <v>-0.08032927096220763</v>
       </c>
       <c r="AJ40">
-        <v>0.04816980256862567</v>
+        <v>-0.2043531036737764</v>
       </c>
       <c r="AK40">
-        <v>-0.26454491444569966</v>
+        <v>0.24659045340212618</v>
       </c>
       <c r="AL40">
-        <v>0.21588810405865022</v>
+        <v>0.06938355861762553</v>
       </c>
       <c r="AM40">
-        <v>-0.07869132680878793</v>
+        <v>-0.20240281214154834</v>
       </c>
       <c r="AN40">
-        <v>0.011455692553672974</v>
+        <v>0.10737760868392007</v>
       </c>
     </row>
   </sheetData>
